--- a/2012-10.xlsx
+++ b/2012-10.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="2130" windowWidth="18435" windowHeight="5940"/>
+    <workbookView xWindow="2400" yWindow="2340" windowWidth="16275" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="2012-10" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3199" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3346" uniqueCount="90">
   <si>
     <t>Восточный</t>
   </si>
@@ -244,6 +244,9 @@
     <t>BR+SHRA</t>
   </si>
   <si>
+    <t>04.май</t>
+  </si>
+  <si>
     <t>4.0</t>
   </si>
   <si>
@@ -257,6 +260,18 @@
   </si>
   <si>
     <t>8.0</t>
+  </si>
+  <si>
+    <t>04.мар</t>
+  </si>
+  <si>
+    <t>03.мар</t>
+  </si>
+  <si>
+    <t>03.янв</t>
+  </si>
+  <si>
+    <t>01.июн</t>
   </si>
   <si>
     <t>0.6</t>
@@ -277,7 +292,34 @@
     <t>0.7</t>
   </si>
   <si>
+    <t>01.фев</t>
+  </si>
+  <si>
+    <t>01.июл</t>
+  </si>
+  <si>
+    <t>01.мар</t>
+  </si>
+  <si>
+    <t>03.июн</t>
+  </si>
+  <si>
+    <t>04.фев</t>
+  </si>
+  <si>
+    <t>02.сен</t>
+  </si>
+  <si>
+    <t>03.апр</t>
+  </si>
+  <si>
     <t>3.0</t>
+  </si>
+  <si>
+    <t>02.мар</t>
+  </si>
+  <si>
+    <t>01.апр</t>
   </si>
   <si>
     <t>0.2</t>
@@ -286,7 +328,28 @@
     <t>0.5</t>
   </si>
   <si>
+    <t>04.апр</t>
+  </si>
+  <si>
+    <t>03.май</t>
+  </si>
+  <si>
+    <t>02.июн</t>
+  </si>
+  <si>
+    <t>02.авг</t>
+  </si>
+  <si>
     <t>Северный</t>
+  </si>
+  <si>
+    <t>04.июл</t>
+  </si>
+  <si>
+    <t>04.янв</t>
+  </si>
+  <si>
+    <t>01.сен</t>
   </si>
   <si>
     <t>0.4</t>
@@ -295,7 +358,34 @@
     <t>FZ</t>
   </si>
   <si>
+    <t>05.июн</t>
+  </si>
+  <si>
+    <t>02.июл</t>
+  </si>
+  <si>
     <t>BR+DZ</t>
+  </si>
+  <si>
+    <t>02.май</t>
+  </si>
+  <si>
+    <t>04.сен</t>
+  </si>
+  <si>
+    <t>04.июн</t>
+  </si>
+  <si>
+    <t>03.авг</t>
+  </si>
+  <si>
+    <t>02.ноя</t>
+  </si>
+  <si>
+    <t>03.фев</t>
+  </si>
+  <si>
+    <t>01.янв</t>
   </si>
   <si>
     <t>0.9</t>
@@ -304,10 +394,34 @@
     <t>0.8</t>
   </si>
   <si>
+    <t>03.июл</t>
+  </si>
+  <si>
+    <t>02.янв</t>
+  </si>
+  <si>
+    <t>01.авг</t>
+  </si>
+  <si>
     <t>DZ+FG</t>
   </si>
   <si>
     <t>DZ</t>
+  </si>
+  <si>
+    <t>01.май</t>
+  </si>
+  <si>
+    <t>02.апр</t>
+  </si>
+  <si>
+    <t>03.сен</t>
+  </si>
+  <si>
+    <t>02.фев</t>
+  </si>
+  <si>
+    <t>04.авг</t>
   </si>
   <si>
     <t>SNRA</t>
@@ -1224,37 +1338,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3511,8 +3625,8 @@
       <c r="G83">
         <v>4</v>
       </c>
-      <c r="H83" s="2">
-        <v>41398</v>
+      <c r="H83" t="s">
+        <v>15</v>
       </c>
       <c r="J83">
         <v>1018</v>
@@ -3573,7 +3687,7 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J85">
         <v>1017</v>
@@ -3599,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G86">
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J86">
         <v>1017</v>
@@ -3625,7 +3739,7 @@
         <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -3654,7 +3768,7 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -3715,7 +3829,7 @@
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -3724,7 +3838,7 @@
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J90">
         <v>1017</v>
@@ -3747,13 +3861,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G91">
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J91">
         <v>1017</v>
@@ -3779,13 +3893,13 @@
         <v>3</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G92">
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J92">
         <v>1017</v>
@@ -3805,19 +3919,19 @@
         <v>18</v>
       </c>
       <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93" t="s">
         <v>18</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93">
-        <v>4</v>
-      </c>
-      <c r="H93" t="s">
-        <v>17</v>
       </c>
       <c r="J93">
         <v>1016</v>
@@ -3837,19 +3951,19 @@
         <v>18</v>
       </c>
       <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94">
+        <v>4</v>
+      </c>
+      <c r="H94" t="s">
         <v>18</v>
-      </c>
-      <c r="E94">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94">
-        <v>4</v>
-      </c>
-      <c r="H94" t="s">
-        <v>17</v>
       </c>
       <c r="J94">
         <v>1016</v>
@@ -3875,13 +3989,13 @@
         <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G95">
         <v>4</v>
       </c>
-      <c r="H95" s="2">
-        <v>41337</v>
+      <c r="H95" t="s">
+        <v>21</v>
       </c>
       <c r="J95">
         <v>1016</v>
@@ -3901,19 +4015,19 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G96">
         <v>4</v>
       </c>
-      <c r="H96" s="2">
-        <v>41336</v>
+      <c r="H96" t="s">
+        <v>22</v>
       </c>
       <c r="J96">
         <v>1015</v>
@@ -3933,19 +4047,19 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G97">
         <v>4</v>
       </c>
-      <c r="H97" s="2">
-        <v>41277</v>
+      <c r="H97" t="s">
+        <v>23</v>
       </c>
       <c r="J97">
         <v>1015</v>
@@ -3971,13 +4085,13 @@
         <v>1</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G98">
         <v>4</v>
       </c>
-      <c r="H98" s="2">
-        <v>41426</v>
+      <c r="H98" t="s">
+        <v>24</v>
       </c>
       <c r="J98">
         <v>1015</v>
@@ -4003,7 +4117,7 @@
         <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J99">
         <v>1015</v>
@@ -4023,16 +4137,16 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H100" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J100">
         <v>1015</v>
@@ -4052,13 +4166,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G101">
         <v>8</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J101">
         <v>1014</v>
@@ -4084,10 +4198,10 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H102" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J102">
         <v>1015</v>
@@ -4110,7 +4224,7 @@
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J103">
         <v>1015</v>
@@ -4130,13 +4244,13 @@
         <v>0</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104">
         <v>8</v>
       </c>
-      <c r="H104" s="2">
-        <v>41306</v>
+      <c r="H104" t="s">
+        <v>31</v>
       </c>
       <c r="J104">
         <v>1014</v>
@@ -4167,8 +4281,8 @@
       <c r="G105">
         <v>6</v>
       </c>
-      <c r="H105" s="2">
-        <v>41456</v>
+      <c r="H105" t="s">
+        <v>32</v>
       </c>
       <c r="J105">
         <v>1013</v>
@@ -4194,13 +4308,13 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G106">
         <v>6</v>
       </c>
-      <c r="H106" s="2">
-        <v>41334</v>
+      <c r="H106" t="s">
+        <v>33</v>
       </c>
       <c r="J106">
         <v>1014</v>
@@ -4231,8 +4345,8 @@
       <c r="G107">
         <v>6</v>
       </c>
-      <c r="H107" s="2">
-        <v>41306</v>
+      <c r="H107" t="s">
+        <v>31</v>
       </c>
       <c r="J107">
         <v>1014</v>
@@ -4263,8 +4377,8 @@
       <c r="G108">
         <v>4</v>
       </c>
-      <c r="H108" s="2">
-        <v>41428</v>
+      <c r="H108" t="s">
+        <v>34</v>
       </c>
       <c r="J108">
         <v>1014</v>
@@ -4322,7 +4436,7 @@
         <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J110">
         <v>1014</v>
@@ -5023,7 +5137,7 @@
         <v>8</v>
       </c>
       <c r="H135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J135">
         <v>1017</v>
@@ -5078,13 +5192,13 @@
         <v>3</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G137">
         <v>8</v>
       </c>
-      <c r="H137" s="2">
-        <v>41309</v>
+      <c r="H137" t="s">
+        <v>35</v>
       </c>
       <c r="J137">
         <v>1017</v>
@@ -5110,13 +5224,13 @@
         <v>4</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G138">
         <v>8</v>
       </c>
-      <c r="H138" s="2">
-        <v>41519</v>
+      <c r="H138" t="s">
+        <v>36</v>
       </c>
       <c r="J138">
         <v>1017</v>
@@ -5142,13 +5256,13 @@
         <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G139">
         <v>8</v>
       </c>
       <c r="H139" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J139">
         <v>1017</v>
@@ -5174,13 +5288,13 @@
         <v>3</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G140">
         <v>8</v>
       </c>
-      <c r="H140" s="2">
-        <v>41428</v>
+      <c r="H140" t="s">
+        <v>34</v>
       </c>
       <c r="J140">
         <v>1017</v>
@@ -5206,13 +5320,13 @@
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G141">
         <v>8</v>
       </c>
-      <c r="H141" s="2">
-        <v>41337</v>
+      <c r="H141" t="s">
+        <v>21</v>
       </c>
       <c r="J141">
         <v>1017</v>
@@ -5238,13 +5352,13 @@
         <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G142">
         <v>8</v>
       </c>
       <c r="H142" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J142">
         <v>1017</v>
@@ -5299,13 +5413,13 @@
         <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G144">
         <v>8</v>
       </c>
       <c r="H144" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J144">
         <v>1017</v>
@@ -5331,13 +5445,13 @@
         <v>2</v>
       </c>
       <c r="F145" t="s">
+        <v>17</v>
+      </c>
+      <c r="G145">
+        <v>8</v>
+      </c>
+      <c r="H145" t="s">
         <v>16</v>
-      </c>
-      <c r="G145">
-        <v>8</v>
-      </c>
-      <c r="H145" t="s">
-        <v>15</v>
       </c>
       <c r="J145">
         <v>1017</v>
@@ -5363,13 +5477,13 @@
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G146">
         <v>8</v>
       </c>
-      <c r="H146" s="2">
-        <v>41336</v>
+      <c r="H146" t="s">
+        <v>22</v>
       </c>
       <c r="J146">
         <v>1017</v>
@@ -5395,13 +5509,13 @@
         <v>1</v>
       </c>
       <c r="F147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G147">
         <v>8</v>
       </c>
-      <c r="H147" s="2">
-        <v>41367</v>
+      <c r="H147" t="s">
+        <v>37</v>
       </c>
       <c r="J147">
         <v>1017</v>
@@ -5427,13 +5541,13 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G148">
         <v>8</v>
       </c>
-      <c r="H148" s="2">
-        <v>41519</v>
+      <c r="H148" t="s">
+        <v>36</v>
       </c>
       <c r="J148">
         <v>1017</v>
@@ -5459,13 +5573,13 @@
         <v>3</v>
       </c>
       <c r="F149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G149">
         <v>8</v>
       </c>
       <c r="H149" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J149">
         <v>1017</v>
@@ -5491,13 +5605,13 @@
         <v>2</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G150">
         <v>8</v>
       </c>
       <c r="H150" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J150">
         <v>1017</v>
@@ -5523,13 +5637,13 @@
         <v>2</v>
       </c>
       <c r="F151" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G151">
         <v>8</v>
       </c>
-      <c r="H151" s="2">
-        <v>41335</v>
+      <c r="H151" t="s">
+        <v>39</v>
       </c>
       <c r="J151">
         <v>1017</v>
@@ -5555,13 +5669,13 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G152">
         <v>8</v>
       </c>
-      <c r="H152" s="2">
-        <v>41365</v>
+      <c r="H152" t="s">
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1017</v>
@@ -5587,10 +5701,10 @@
         <v>1</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J153">
         <v>1017</v>
@@ -5613,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H154" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J154">
         <v>1017</v>
@@ -5639,10 +5753,10 @@
         <v>2</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H155" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J155">
         <v>1017</v>
@@ -5665,10 +5779,10 @@
         <v>2</v>
       </c>
       <c r="F156" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H156" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J156">
         <v>1017</v>
@@ -5691,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J157">
         <v>1017</v>
@@ -5714,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H158" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J158">
         <v>1017</v>
@@ -5737,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>1018</v>
@@ -5760,13 +5874,13 @@
         <v>2</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G160">
         <v>6</v>
       </c>
-      <c r="H160" s="2">
-        <v>41368</v>
+      <c r="H160" t="s">
+        <v>43</v>
       </c>
       <c r="J160">
         <v>1018</v>
@@ -6232,13 +6346,13 @@
         <v>2</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G180">
         <v>6</v>
       </c>
-      <c r="H180" s="2">
-        <v>41397</v>
+      <c r="H180" t="s">
+        <v>44</v>
       </c>
       <c r="J180">
         <v>1014</v>
@@ -6261,13 +6375,13 @@
         <v>2</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G181">
         <v>6</v>
       </c>
-      <c r="H181" s="2">
-        <v>41427</v>
+      <c r="H181" t="s">
+        <v>45</v>
       </c>
       <c r="J181">
         <v>1014</v>
@@ -6290,13 +6404,13 @@
         <v>2</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G182">
         <v>6</v>
       </c>
-      <c r="H182" s="2">
-        <v>41519</v>
+      <c r="H182" t="s">
+        <v>36</v>
       </c>
       <c r="J182">
         <v>1014</v>
@@ -6319,13 +6433,13 @@
         <v>2</v>
       </c>
       <c r="F183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G183">
         <v>6</v>
       </c>
-      <c r="H183" s="2">
-        <v>41488</v>
+      <c r="H183" t="s">
+        <v>46</v>
       </c>
       <c r="J183">
         <v>1014</v>
@@ -6348,13 +6462,13 @@
         <v>2</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G184">
         <v>6</v>
       </c>
       <c r="H184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J184">
         <v>1013</v>
@@ -6406,7 +6520,7 @@
         <v>6</v>
       </c>
       <c r="H186" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J186">
         <v>1013</v>
@@ -6432,7 +6546,7 @@
         <v>6</v>
       </c>
       <c r="H187" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J187">
         <v>1013</v>
@@ -7507,8 +7621,8 @@
       <c r="G227">
         <v>6</v>
       </c>
-      <c r="H227" s="2">
-        <v>41367</v>
+      <c r="H227" t="s">
+        <v>37</v>
       </c>
       <c r="J227">
         <v>1017</v>
@@ -9356,7 +9470,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E305">
         <v>5</v>
@@ -9388,7 +9502,7 @@
         <v>11</v>
       </c>
       <c r="D306" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E306">
         <v>3</v>
@@ -9420,7 +9534,7 @@
         <v>11</v>
       </c>
       <c r="D307" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E307">
         <v>3</v>
@@ -9452,7 +9566,7 @@
         <v>11</v>
       </c>
       <c r="D308" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E308">
         <v>2</v>
@@ -9464,7 +9578,7 @@
         <v>6</v>
       </c>
       <c r="H308" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J308">
         <v>1012</v>
@@ -9484,7 +9598,7 @@
         <v>11</v>
       </c>
       <c r="D309" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E309">
         <v>2</v>
@@ -9580,7 +9694,7 @@
         <v>11</v>
       </c>
       <c r="D312" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E312">
         <v>2</v>
@@ -9592,7 +9706,7 @@
         <v>6</v>
       </c>
       <c r="H312" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J312">
         <v>1011</v>
@@ -9612,7 +9726,7 @@
         <v>11</v>
       </c>
       <c r="D313" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E313">
         <v>2</v>
@@ -9893,8 +10007,8 @@
       <c r="G322">
         <v>4</v>
       </c>
-      <c r="H322" s="2">
-        <v>41459</v>
+      <c r="H322" t="s">
+        <v>48</v>
       </c>
       <c r="J322">
         <v>1007</v>
@@ -9957,8 +10071,8 @@
       <c r="G324">
         <v>6</v>
       </c>
-      <c r="H324" s="2">
-        <v>41309</v>
+      <c r="H324" t="s">
+        <v>35</v>
       </c>
       <c r="J324">
         <v>1007</v>
@@ -10010,7 +10124,7 @@
         <v>11</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E326">
         <v>6</v>
@@ -10042,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="D327" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E327">
         <v>6</v>
@@ -10074,7 +10188,7 @@
         <v>8</v>
       </c>
       <c r="D328" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E328">
         <v>9</v>
@@ -10086,7 +10200,7 @@
         <v>6</v>
       </c>
       <c r="H328" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J328">
         <v>1009</v>
@@ -10106,7 +10220,7 @@
         <v>8</v>
       </c>
       <c r="D329" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E329">
         <v>7</v>
@@ -10138,7 +10252,7 @@
         <v>8</v>
       </c>
       <c r="D330" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E330">
         <v>6</v>
@@ -14404,7 +14518,7 @@
         <v>6</v>
       </c>
       <c r="H489" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J489">
         <v>1013</v>
@@ -14447,13 +14561,13 @@
         <v>0</v>
       </c>
       <c r="F491" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G491">
         <v>6</v>
       </c>
-      <c r="H491" s="2">
-        <v>41368</v>
+      <c r="H491" t="s">
+        <v>43</v>
       </c>
       <c r="J491">
         <v>1013</v>
@@ -14476,7 +14590,7 @@
         <v>6</v>
       </c>
       <c r="H492" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J492">
         <v>1013</v>
@@ -14499,7 +14613,7 @@
         <v>6</v>
       </c>
       <c r="H493" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J493">
         <v>1013</v>
@@ -15093,13 +15207,13 @@
         <v>2</v>
       </c>
       <c r="F514" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G514">
         <v>6</v>
       </c>
-      <c r="H514" s="2">
-        <v>41428</v>
+      <c r="H514" t="s">
+        <v>34</v>
       </c>
       <c r="J514">
         <v>1014</v>
@@ -15125,7 +15239,7 @@
         <v>6</v>
       </c>
       <c r="H515" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J515">
         <v>1014</v>
@@ -15203,7 +15317,7 @@
         <v>6</v>
       </c>
       <c r="H518" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J518">
         <v>1014</v>
@@ -15324,7 +15438,7 @@
         <v>6</v>
       </c>
       <c r="H523" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J523">
         <v>1015</v>
@@ -15396,7 +15510,7 @@
         <v>6</v>
       </c>
       <c r="H526" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J526">
         <v>1015</v>
@@ -15422,7 +15536,7 @@
         <v>6</v>
       </c>
       <c r="H527" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J527">
         <v>1015</v>
@@ -15442,13 +15556,13 @@
         <v>0</v>
       </c>
       <c r="F528" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G528">
         <v>6</v>
       </c>
-      <c r="H528" s="2">
-        <v>41334</v>
+      <c r="H528" t="s">
+        <v>33</v>
       </c>
       <c r="J528">
         <v>1015</v>
@@ -15471,7 +15585,7 @@
         <v>6</v>
       </c>
       <c r="H529" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J529">
         <v>1015</v>
@@ -15491,13 +15605,13 @@
         <v>0</v>
       </c>
       <c r="F530" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G530">
         <v>6</v>
       </c>
-      <c r="H530" s="2">
-        <v>41278</v>
+      <c r="H530" t="s">
+        <v>49</v>
       </c>
       <c r="J530">
         <v>1015</v>
@@ -15523,13 +15637,13 @@
         <v>1</v>
       </c>
       <c r="F531" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G531">
         <v>6</v>
       </c>
-      <c r="H531" s="2">
-        <v>41518</v>
+      <c r="H531" t="s">
+        <v>50</v>
       </c>
       <c r="J531">
         <v>1015</v>
@@ -15555,7 +15669,7 @@
         <v>6</v>
       </c>
       <c r="H532" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J532">
         <v>1015</v>
@@ -15581,7 +15695,7 @@
         <v>6</v>
       </c>
       <c r="H533" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J533">
         <v>1015</v>
@@ -15610,7 +15724,7 @@
         <v>8</v>
       </c>
       <c r="H534" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J534">
         <v>1015</v>
@@ -15633,10 +15747,10 @@
         <v>0</v>
       </c>
       <c r="F535" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H535" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J535">
         <v>1016</v>
@@ -15659,10 +15773,10 @@
         <v>1</v>
       </c>
       <c r="F536" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H536" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J536">
         <v>1016</v>
@@ -15685,10 +15799,10 @@
         <v>1</v>
       </c>
       <c r="F537" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H537" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J537">
         <v>1016</v>
@@ -15708,10 +15822,10 @@
         <v>0</v>
       </c>
       <c r="F538" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H538" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J538">
         <v>1016</v>
@@ -15731,10 +15845,10 @@
         <v>0</v>
       </c>
       <c r="F539" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H539" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J539">
         <v>1016</v>
@@ -15754,10 +15868,10 @@
         <v>0</v>
       </c>
       <c r="F540" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H540" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J540">
         <v>1016</v>
@@ -15777,10 +15891,10 @@
         <v>0</v>
       </c>
       <c r="F541" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H541" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J541">
         <v>1016</v>
@@ -15803,10 +15917,10 @@
         <v>1</v>
       </c>
       <c r="F542" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="H542" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J542">
         <v>1017</v>
@@ -15829,10 +15943,10 @@
         <v>1</v>
       </c>
       <c r="F543" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H543" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J543">
         <v>1017</v>
@@ -15852,10 +15966,10 @@
         <v>0</v>
       </c>
       <c r="F544" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H544" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J544">
         <v>1017</v>
@@ -15875,10 +15989,10 @@
         <v>0</v>
       </c>
       <c r="F545" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H545" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J545">
         <v>1017</v>
@@ -15901,10 +16015,10 @@
         <v>1</v>
       </c>
       <c r="F546" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H546" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J546">
         <v>1017</v>
@@ -15927,13 +16041,13 @@
         <v>1</v>
       </c>
       <c r="F547" t="s">
+        <v>17</v>
+      </c>
+      <c r="G547">
+        <v>6</v>
+      </c>
+      <c r="H547" t="s">
         <v>16</v>
-      </c>
-      <c r="G547">
-        <v>6</v>
-      </c>
-      <c r="H547" t="s">
-        <v>15</v>
       </c>
       <c r="J547">
         <v>1017</v>
@@ -16726,7 +16840,7 @@
         <v>6</v>
       </c>
       <c r="H579" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J579">
         <v>1016</v>
@@ -16824,7 +16938,7 @@
         <v>6</v>
       </c>
       <c r="H583" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J583">
         <v>1015</v>
@@ -16847,13 +16961,13 @@
         <v>3</v>
       </c>
       <c r="F584" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G584">
         <v>6</v>
       </c>
       <c r="H584" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J584">
         <v>1015</v>
@@ -16902,13 +17016,13 @@
         <v>2</v>
       </c>
       <c r="F586" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G586">
         <v>6</v>
       </c>
-      <c r="H586" s="2">
-        <v>41368</v>
+      <c r="H586" t="s">
+        <v>43</v>
       </c>
       <c r="J586">
         <v>1015</v>
@@ -16983,13 +17097,13 @@
         <v>2</v>
       </c>
       <c r="F589" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G589">
         <v>6</v>
       </c>
       <c r="H589" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J589">
         <v>1015</v>
@@ -17197,7 +17311,7 @@
         <v>4</v>
       </c>
       <c r="H597" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J597">
         <v>1016</v>
@@ -17261,7 +17375,7 @@
         <v>4</v>
       </c>
       <c r="H599" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J599">
         <v>1016</v>
@@ -17325,7 +17439,7 @@
         <v>4</v>
       </c>
       <c r="H601" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J601">
         <v>1016</v>
@@ -17356,8 +17470,8 @@
       <c r="G602">
         <v>4</v>
       </c>
-      <c r="H602" s="2">
-        <v>41430</v>
+      <c r="H602" t="s">
+        <v>53</v>
       </c>
       <c r="J602">
         <v>1016</v>
@@ -17389,7 +17503,7 @@
         <v>4</v>
       </c>
       <c r="H603" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J603">
         <v>1016</v>
@@ -17415,13 +17529,13 @@
         <v>2</v>
       </c>
       <c r="F604" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G604">
         <v>4</v>
       </c>
-      <c r="H604" s="2">
-        <v>41459</v>
+      <c r="H604" t="s">
+        <v>48</v>
       </c>
       <c r="J604">
         <v>1016</v>
@@ -17476,13 +17590,13 @@
         <v>1</v>
       </c>
       <c r="F606" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G606">
         <v>4</v>
       </c>
       <c r="H606" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J606">
         <v>1016</v>
@@ -17641,13 +17755,13 @@
         <v>0</v>
       </c>
       <c r="F612" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G612">
         <v>8</v>
       </c>
       <c r="H612" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J612">
         <v>1016</v>
@@ -17673,13 +17787,13 @@
         <v>1</v>
       </c>
       <c r="F613" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G613">
         <v>8</v>
       </c>
       <c r="H613" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J613">
         <v>1016</v>
@@ -17705,13 +17819,13 @@
         <v>1</v>
       </c>
       <c r="F614" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G614">
         <v>8</v>
       </c>
       <c r="H614" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J614">
         <v>1016</v>
@@ -17731,19 +17845,19 @@
         <v>9</v>
       </c>
       <c r="D615" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E615">
         <v>1</v>
       </c>
       <c r="F615" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G615">
         <v>8</v>
       </c>
       <c r="H615" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J615">
         <v>1016</v>
@@ -17899,13 +18013,13 @@
         <v>2</v>
       </c>
       <c r="F621" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G621">
         <v>8</v>
       </c>
       <c r="H621" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J621">
         <v>1015</v>
@@ -17931,13 +18045,13 @@
         <v>2</v>
       </c>
       <c r="F622" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G622">
         <v>8</v>
       </c>
       <c r="H622" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J622">
         <v>1015</v>
@@ -17963,13 +18077,13 @@
         <v>2</v>
       </c>
       <c r="F623" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G623">
         <v>8</v>
       </c>
       <c r="H623" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J623">
         <v>1015</v>
@@ -17995,13 +18109,13 @@
         <v>2</v>
       </c>
       <c r="F624" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G624">
         <v>8</v>
       </c>
       <c r="H624" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J624">
         <v>1015</v>
@@ -18053,13 +18167,13 @@
         <v>2</v>
       </c>
       <c r="F626" t="s">
+        <v>17</v>
+      </c>
+      <c r="G626">
+        <v>6</v>
+      </c>
+      <c r="H626" t="s">
         <v>16</v>
-      </c>
-      <c r="G626">
-        <v>6</v>
-      </c>
-      <c r="H626" t="s">
-        <v>15</v>
       </c>
       <c r="J626">
         <v>1013</v>
@@ -18082,13 +18196,13 @@
         <v>3</v>
       </c>
       <c r="F627" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G627">
         <v>6</v>
       </c>
-      <c r="H627" s="2">
-        <v>41336</v>
+      <c r="H627" t="s">
+        <v>22</v>
       </c>
       <c r="J627">
         <v>1013</v>
@@ -18111,13 +18225,13 @@
         <v>3</v>
       </c>
       <c r="F628" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G628">
         <v>6</v>
       </c>
-      <c r="H628" s="2">
-        <v>41336</v>
+      <c r="H628" t="s">
+        <v>22</v>
       </c>
       <c r="J628">
         <v>1013</v>
@@ -18140,13 +18254,13 @@
         <v>2</v>
       </c>
       <c r="F629" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G629">
         <v>6</v>
       </c>
       <c r="H629" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J629">
         <v>1013</v>
@@ -18169,13 +18283,13 @@
         <v>2</v>
       </c>
       <c r="F630" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G630">
         <v>6</v>
       </c>
       <c r="H630" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J630">
         <v>1013</v>
@@ -18224,13 +18338,13 @@
         <v>3</v>
       </c>
       <c r="F632" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G632">
         <v>6</v>
       </c>
-      <c r="H632" s="2">
-        <v>41368</v>
+      <c r="H632" t="s">
+        <v>43</v>
       </c>
       <c r="J632">
         <v>1012</v>
@@ -18256,13 +18370,13 @@
         <v>3</v>
       </c>
       <c r="F633" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G633">
         <v>8</v>
       </c>
-      <c r="H633" s="2">
-        <v>41457</v>
+      <c r="H633" t="s">
+        <v>54</v>
       </c>
       <c r="J633">
         <v>1012</v>
@@ -18288,13 +18402,13 @@
         <v>5</v>
       </c>
       <c r="F634" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G634">
         <v>8</v>
       </c>
-      <c r="H634" s="2">
-        <v>41456</v>
+      <c r="H634" t="s">
+        <v>32</v>
       </c>
       <c r="J634">
         <v>1012</v>
@@ -18320,13 +18434,13 @@
         <v>5</v>
       </c>
       <c r="F635" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G635">
         <v>8</v>
       </c>
-      <c r="H635" s="2">
-        <v>41518</v>
+      <c r="H635" t="s">
+        <v>50</v>
       </c>
       <c r="J635">
         <v>1012</v>
@@ -18352,13 +18466,13 @@
         <v>4</v>
       </c>
       <c r="F636" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G636">
         <v>8</v>
       </c>
-      <c r="H636" s="2">
-        <v>41306</v>
+      <c r="H636" t="s">
+        <v>31</v>
       </c>
       <c r="J636">
         <v>1012</v>
@@ -18384,13 +18498,13 @@
         <v>4</v>
       </c>
       <c r="F637" t="s">
+        <v>55</v>
+      </c>
+      <c r="G637">
+        <v>8</v>
+      </c>
+      <c r="H637" t="s">
         <v>32</v>
-      </c>
-      <c r="G637">
-        <v>8</v>
-      </c>
-      <c r="H637" s="2">
-        <v>41456</v>
       </c>
       <c r="J637">
         <v>1012</v>
@@ -18416,13 +18530,13 @@
         <v>4</v>
       </c>
       <c r="F638" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G638">
         <v>8</v>
       </c>
-      <c r="H638" s="2">
-        <v>41396</v>
+      <c r="H638" t="s">
+        <v>56</v>
       </c>
       <c r="J638">
         <v>1012</v>
@@ -18448,13 +18562,13 @@
         <v>5</v>
       </c>
       <c r="F639" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G639">
         <v>8</v>
       </c>
-      <c r="H639" s="2">
-        <v>41336</v>
+      <c r="H639" t="s">
+        <v>22</v>
       </c>
       <c r="J639">
         <v>1012</v>
@@ -18480,13 +18594,13 @@
         <v>5</v>
       </c>
       <c r="F640" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G640">
         <v>8</v>
       </c>
       <c r="H640" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J640">
         <v>1012</v>
@@ -18573,7 +18687,7 @@
         <v>6</v>
       </c>
       <c r="H643" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J643">
         <v>1012</v>
@@ -18602,7 +18716,7 @@
         <v>8</v>
       </c>
       <c r="H644" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J644">
         <v>1012</v>
@@ -19146,7 +19260,7 @@
         <v>8</v>
       </c>
       <c r="H664" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J664">
         <v>1010</v>
@@ -19230,13 +19344,13 @@
         <v>3</v>
       </c>
       <c r="F667" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G667">
         <v>6</v>
       </c>
-      <c r="H667" s="2">
-        <v>41521</v>
+      <c r="H667" t="s">
+        <v>57</v>
       </c>
       <c r="J667">
         <v>1011</v>
@@ -19262,13 +19376,13 @@
         <v>2</v>
       </c>
       <c r="F668" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G668">
         <v>6</v>
       </c>
-      <c r="H668" s="2">
-        <v>41368</v>
+      <c r="H668" t="s">
+        <v>43</v>
       </c>
       <c r="J668">
         <v>1011</v>
@@ -19294,13 +19408,13 @@
         <v>3</v>
       </c>
       <c r="F669" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G669">
         <v>6</v>
       </c>
-      <c r="H669" s="2">
-        <v>41429</v>
+      <c r="H669" t="s">
+        <v>58</v>
       </c>
       <c r="J669">
         <v>1011</v>
@@ -19326,13 +19440,13 @@
         <v>3</v>
       </c>
       <c r="F670" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G670">
         <v>6</v>
       </c>
       <c r="H670" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J670">
         <v>1011</v>
@@ -19358,13 +19472,13 @@
         <v>3</v>
       </c>
       <c r="F671" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G671">
         <v>6</v>
       </c>
-      <c r="H671" s="2">
-        <v>41398</v>
+      <c r="H671" t="s">
+        <v>15</v>
       </c>
       <c r="J671">
         <v>1011</v>
@@ -19387,13 +19501,13 @@
         <v>4</v>
       </c>
       <c r="F672" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G672">
         <v>6</v>
       </c>
-      <c r="H672" s="2">
-        <v>41489</v>
+      <c r="H672" t="s">
+        <v>59</v>
       </c>
       <c r="J672">
         <v>1011</v>
@@ -19416,13 +19530,13 @@
         <v>5</v>
       </c>
       <c r="F673" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G673">
         <v>6</v>
       </c>
-      <c r="H673" s="2">
-        <v>41580</v>
+      <c r="H673" t="s">
+        <v>60</v>
       </c>
       <c r="J673">
         <v>1011</v>
@@ -19445,13 +19559,13 @@
         <v>3</v>
       </c>
       <c r="F674" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G674">
         <v>6</v>
       </c>
-      <c r="H674" s="2">
-        <v>41308</v>
+      <c r="H674" t="s">
+        <v>61</v>
       </c>
       <c r="J674">
         <v>1010</v>
@@ -19474,13 +19588,13 @@
         <v>4</v>
       </c>
       <c r="F675" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G675">
         <v>8</v>
       </c>
-      <c r="H675" s="2">
-        <v>41308</v>
+      <c r="H675" t="s">
+        <v>61</v>
       </c>
       <c r="J675">
         <v>1010</v>
@@ -19506,13 +19620,13 @@
         <v>4</v>
       </c>
       <c r="F676" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G676">
         <v>8</v>
       </c>
-      <c r="H676" s="2">
-        <v>41518</v>
+      <c r="H676" t="s">
+        <v>50</v>
       </c>
       <c r="J676">
         <v>1010</v>
@@ -19538,13 +19652,13 @@
         <v>5</v>
       </c>
       <c r="F677" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G677">
         <v>8</v>
       </c>
-      <c r="H677" s="2">
-        <v>41275</v>
+      <c r="H677" t="s">
+        <v>62</v>
       </c>
       <c r="J677">
         <v>1010</v>
@@ -19570,10 +19684,10 @@
         <v>5</v>
       </c>
       <c r="F678" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H678" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J678">
         <v>1010</v>
@@ -19596,13 +19710,13 @@
         <v>3</v>
       </c>
       <c r="F679" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G679">
         <v>8</v>
       </c>
-      <c r="H679" s="2">
-        <v>41334</v>
+      <c r="H679" t="s">
+        <v>33</v>
       </c>
       <c r="J679">
         <v>1010</v>
@@ -19628,10 +19742,10 @@
         <v>4</v>
       </c>
       <c r="F680" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H680" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J680">
         <v>1010</v>
@@ -19654,10 +19768,10 @@
         <v>3</v>
       </c>
       <c r="F681" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H681" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J681">
         <v>1010</v>
@@ -19680,10 +19794,10 @@
         <v>5</v>
       </c>
       <c r="F682" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H682" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J682">
         <v>1010</v>
@@ -19706,10 +19820,10 @@
         <v>4</v>
       </c>
       <c r="F683" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H683" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J683">
         <v>1010</v>
@@ -19732,10 +19846,10 @@
         <v>4</v>
       </c>
       <c r="F684" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H684" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J684">
         <v>1011</v>
@@ -19758,10 +19872,10 @@
         <v>3</v>
       </c>
       <c r="F685" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H685" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J685">
         <v>1011</v>
@@ -19784,10 +19898,10 @@
         <v>5</v>
       </c>
       <c r="F686" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H686" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J686">
         <v>1011</v>
@@ -19810,7 +19924,7 @@
         <v>4</v>
       </c>
       <c r="H687" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J687">
         <v>1011</v>
@@ -19833,7 +19947,7 @@
         <v>5</v>
       </c>
       <c r="H688" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J688">
         <v>1011</v>
@@ -19856,13 +19970,13 @@
         <v>6</v>
       </c>
       <c r="F689" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G689">
         <v>8</v>
       </c>
-      <c r="H689" s="2">
-        <v>41518</v>
+      <c r="H689" t="s">
+        <v>50</v>
       </c>
       <c r="J689">
         <v>1011</v>
@@ -19888,13 +20002,13 @@
         <v>5</v>
       </c>
       <c r="F690" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G690">
         <v>8</v>
       </c>
-      <c r="H690" s="2">
-        <v>41308</v>
+      <c r="H690" t="s">
+        <v>61</v>
       </c>
       <c r="J690">
         <v>1011</v>
@@ -20280,7 +20394,7 @@
         <v>6</v>
       </c>
       <c r="H706" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J706">
         <v>1011</v>
@@ -20332,7 +20446,7 @@
         <v>6</v>
       </c>
       <c r="H708" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J708">
         <v>1011</v>
@@ -20505,13 +20619,13 @@
         <v>2</v>
       </c>
       <c r="F715" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G715">
         <v>6</v>
       </c>
       <c r="H715" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J715">
         <v>1013</v>
@@ -20534,13 +20648,13 @@
         <v>2</v>
       </c>
       <c r="F716" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G716">
         <v>6</v>
       </c>
-      <c r="H716" s="2">
-        <v>41458</v>
+      <c r="H716" t="s">
+        <v>65</v>
       </c>
       <c r="J716">
         <v>1013</v>
@@ -20563,13 +20677,13 @@
         <v>2</v>
       </c>
       <c r="F717" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G717">
         <v>6</v>
       </c>
-      <c r="H717" s="2">
-        <v>41335</v>
+      <c r="H717" t="s">
+        <v>39</v>
       </c>
       <c r="J717">
         <v>1013</v>
@@ -20592,13 +20706,13 @@
         <v>3</v>
       </c>
       <c r="F718" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G718">
         <v>6</v>
       </c>
-      <c r="H718" s="2">
-        <v>41456</v>
+      <c r="H718" t="s">
+        <v>32</v>
       </c>
       <c r="J718">
         <v>1013</v>
@@ -20624,10 +20738,10 @@
         <v>3</v>
       </c>
       <c r="F719" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H719" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J719">
         <v>1013</v>
@@ -20650,10 +20764,10 @@
         <v>4</v>
       </c>
       <c r="F720" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H720" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J720">
         <v>1013</v>
@@ -20676,10 +20790,10 @@
         <v>5</v>
       </c>
       <c r="F721" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H721" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J721">
         <v>1013</v>
@@ -20702,10 +20816,10 @@
         <v>5</v>
       </c>
       <c r="F722" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H722" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J722">
         <v>1013</v>
@@ -20728,10 +20842,10 @@
         <v>4</v>
       </c>
       <c r="F723" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H723" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J723">
         <v>1013</v>
@@ -20754,10 +20868,10 @@
         <v>3</v>
       </c>
       <c r="F724" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H724" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J724">
         <v>1013</v>
@@ -20780,10 +20894,10 @@
         <v>3</v>
       </c>
       <c r="F725" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H725" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J725">
         <v>1013</v>
@@ -20806,10 +20920,10 @@
         <v>3</v>
       </c>
       <c r="F726" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H726" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J726">
         <v>1013</v>
@@ -20832,10 +20946,10 @@
         <v>3</v>
       </c>
       <c r="F727" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H727" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J727">
         <v>1013</v>
@@ -20858,10 +20972,10 @@
         <v>3</v>
       </c>
       <c r="F728" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H728" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J728">
         <v>1013</v>
@@ -20884,10 +20998,10 @@
         <v>4</v>
       </c>
       <c r="F729" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H729" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J729">
         <v>1013</v>
@@ -20910,10 +21024,10 @@
         <v>3</v>
       </c>
       <c r="F730" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H730" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J730">
         <v>1013</v>
@@ -20936,10 +21050,10 @@
         <v>4</v>
       </c>
       <c r="F731" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H731" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J731">
         <v>1013</v>
@@ -20962,10 +21076,10 @@
         <v>4</v>
       </c>
       <c r="F732" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H732" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J732">
         <v>1013</v>
@@ -20988,10 +21102,10 @@
         <v>4</v>
       </c>
       <c r="F733" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H733" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J733">
         <v>1013</v>
@@ -21014,10 +21128,10 @@
         <v>2</v>
       </c>
       <c r="F734" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H734" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J734">
         <v>1013</v>
@@ -21040,7 +21154,7 @@
         <v>4</v>
       </c>
       <c r="H735" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J735">
         <v>1013</v>
@@ -21063,13 +21177,13 @@
         <v>3</v>
       </c>
       <c r="F736" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G736">
         <v>8</v>
       </c>
-      <c r="H736" s="2">
-        <v>41518</v>
+      <c r="H736" t="s">
+        <v>50</v>
       </c>
       <c r="J736">
         <v>1013</v>
@@ -21095,13 +21209,13 @@
         <v>4</v>
       </c>
       <c r="F737" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G737">
         <v>8</v>
       </c>
-      <c r="H737" s="2">
-        <v>41396</v>
+      <c r="H737" t="s">
+        <v>56</v>
       </c>
       <c r="J737">
         <v>1013</v>
@@ -21127,13 +21241,13 @@
         <v>5</v>
       </c>
       <c r="F738" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G738">
         <v>8</v>
       </c>
-      <c r="H738" s="2">
-        <v>41308</v>
+      <c r="H738" t="s">
+        <v>61</v>
       </c>
       <c r="J738">
         <v>1013</v>
@@ -21159,13 +21273,13 @@
         <v>4</v>
       </c>
       <c r="F739" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G739">
         <v>8</v>
       </c>
-      <c r="H739" s="2">
-        <v>41521</v>
+      <c r="H739" t="s">
+        <v>57</v>
       </c>
       <c r="J739">
         <v>1013</v>
@@ -21584,7 +21698,7 @@
         <v>6</v>
       </c>
       <c r="H755" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J755">
         <v>1010</v>
@@ -21700,13 +21814,13 @@
         <v>4</v>
       </c>
       <c r="F759" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G759">
         <v>6</v>
       </c>
       <c r="H759" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J759">
         <v>1010</v>
@@ -21738,7 +21852,7 @@
         <v>6</v>
       </c>
       <c r="H760" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J760">
         <v>1010</v>
@@ -21764,13 +21878,13 @@
         <v>4</v>
       </c>
       <c r="F761" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G761">
         <v>6</v>
       </c>
-      <c r="H761" s="2">
-        <v>41368</v>
+      <c r="H761" t="s">
+        <v>43</v>
       </c>
       <c r="J761">
         <v>1010</v>
@@ -21796,13 +21910,13 @@
         <v>5</v>
       </c>
       <c r="F762" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G762">
         <v>6</v>
       </c>
-      <c r="H762" s="2">
-        <v>41368</v>
+      <c r="H762" t="s">
+        <v>43</v>
       </c>
       <c r="J762">
         <v>1009</v>
@@ -21828,13 +21942,13 @@
         <v>5</v>
       </c>
       <c r="F763" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G763">
         <v>6</v>
       </c>
-      <c r="H763" s="2">
-        <v>41428</v>
+      <c r="H763" t="s">
+        <v>34</v>
       </c>
       <c r="J763">
         <v>1009</v>
@@ -21860,13 +21974,13 @@
         <v>5</v>
       </c>
       <c r="F764" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G764">
         <v>6</v>
       </c>
       <c r="H764" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J764">
         <v>1009</v>
@@ -21892,13 +22006,13 @@
         <v>3</v>
       </c>
       <c r="F765" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G765">
         <v>6</v>
       </c>
-      <c r="H765" s="2">
-        <v>41277</v>
+      <c r="H765" t="s">
+        <v>23</v>
       </c>
       <c r="J765">
         <v>1009</v>
@@ -21924,13 +22038,13 @@
         <v>2</v>
       </c>
       <c r="F766" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G766">
         <v>6</v>
       </c>
-      <c r="H766" s="2">
-        <v>41308</v>
+      <c r="H766" t="s">
+        <v>61</v>
       </c>
       <c r="J766">
         <v>1009</v>
@@ -21953,13 +22067,13 @@
         <v>3</v>
       </c>
       <c r="F767" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G767">
         <v>6</v>
       </c>
-      <c r="H767" s="2">
-        <v>41336</v>
+      <c r="H767" t="s">
+        <v>22</v>
       </c>
       <c r="J767">
         <v>1009</v>
@@ -21982,13 +22096,13 @@
         <v>2</v>
       </c>
       <c r="F768" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G768">
         <v>6</v>
       </c>
-      <c r="H768" s="2">
-        <v>41308</v>
+      <c r="H768" t="s">
+        <v>61</v>
       </c>
       <c r="J768">
         <v>1010</v>
@@ -22011,13 +22125,13 @@
         <v>3</v>
       </c>
       <c r="F769" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G769">
         <v>6</v>
       </c>
       <c r="H769" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J769">
         <v>1010</v>
@@ -22040,13 +22154,13 @@
         <v>3</v>
       </c>
       <c r="F770" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G770">
         <v>6</v>
       </c>
       <c r="H770" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J770">
         <v>1010</v>
@@ -22203,7 +22317,7 @@
         <v>6</v>
       </c>
       <c r="H775" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J775">
         <v>1012</v>
@@ -22459,7 +22573,7 @@
         <v>6</v>
       </c>
       <c r="H783" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J783">
         <v>1015</v>
@@ -22485,13 +22599,13 @@
         <v>6</v>
       </c>
       <c r="F784" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G784">
         <v>6</v>
       </c>
       <c r="H784" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J784">
         <v>1015</v>
@@ -22552,7 +22666,7 @@
         <v>6</v>
       </c>
       <c r="H786" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J786">
         <v>1016</v>
@@ -22584,7 +22698,7 @@
         <v>6</v>
       </c>
       <c r="H787" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J787">
         <v>1017</v>
@@ -23184,13 +23298,13 @@
         <v>0</v>
       </c>
       <c r="F811" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G811">
         <v>6</v>
       </c>
       <c r="H811" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J811">
         <v>1023</v>
@@ -23262,7 +23376,7 @@
         <v>6</v>
       </c>
       <c r="H814" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J814">
         <v>1023</v>
@@ -23328,13 +23442,13 @@
         <v>0</v>
       </c>
       <c r="F817" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G817">
         <v>6</v>
       </c>
       <c r="H817" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J817">
         <v>1023</v>
@@ -23354,13 +23468,13 @@
         <v>0</v>
       </c>
       <c r="F818" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G818">
         <v>6</v>
       </c>
       <c r="H818" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J818">
         <v>1023</v>
@@ -23380,13 +23494,13 @@
         <v>0</v>
       </c>
       <c r="F819" t="s">
+        <v>17</v>
+      </c>
+      <c r="G819">
+        <v>6</v>
+      </c>
+      <c r="H819" t="s">
         <v>16</v>
-      </c>
-      <c r="G819">
-        <v>6</v>
-      </c>
-      <c r="H819" t="s">
-        <v>15</v>
       </c>
       <c r="J819">
         <v>1023</v>
@@ -23406,13 +23520,13 @@
         <v>0</v>
       </c>
       <c r="F820" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G820">
         <v>6</v>
       </c>
       <c r="H820" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J820">
         <v>1023</v>
@@ -23432,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="F821" t="s">
+        <v>17</v>
+      </c>
+      <c r="G821">
+        <v>6</v>
+      </c>
+      <c r="H821" t="s">
         <v>16</v>
-      </c>
-      <c r="G821">
-        <v>6</v>
-      </c>
-      <c r="H821" t="s">
-        <v>15</v>
       </c>
       <c r="J821">
         <v>1024</v>
@@ -23458,13 +23572,13 @@
         <v>0</v>
       </c>
       <c r="F822" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G822">
         <v>6</v>
       </c>
       <c r="H822" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J822">
         <v>1024</v>
@@ -23484,13 +23598,13 @@
         <v>0</v>
       </c>
       <c r="F823" t="s">
+        <v>17</v>
+      </c>
+      <c r="G823">
+        <v>6</v>
+      </c>
+      <c r="H823" t="s">
         <v>16</v>
-      </c>
-      <c r="G823">
-        <v>6</v>
-      </c>
-      <c r="H823" t="s">
-        <v>15</v>
       </c>
       <c r="J823">
         <v>1024</v>
@@ -23510,13 +23624,13 @@
         <v>0</v>
       </c>
       <c r="F824" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G824">
         <v>6</v>
       </c>
       <c r="H824" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J824">
         <v>1024</v>
@@ -23539,7 +23653,7 @@
         <v>6</v>
       </c>
       <c r="H825" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J825">
         <v>1024</v>
@@ -23562,7 +23676,7 @@
         <v>6</v>
       </c>
       <c r="H826" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J826">
         <v>1024</v>
@@ -23585,7 +23699,7 @@
         <v>6</v>
       </c>
       <c r="H827" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J827">
         <v>1024</v>
@@ -23634,7 +23748,7 @@
         <v>6</v>
       </c>
       <c r="H829" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J829">
         <v>1024</v>
@@ -25233,7 +25347,7 @@
         <v>6</v>
       </c>
       <c r="H898" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J898">
         <v>1022</v>
@@ -25794,7 +25908,7 @@
         <v>6</v>
       </c>
       <c r="H922" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J922">
         <v>1021</v>
@@ -25872,7 +25986,7 @@
         <v>6</v>
       </c>
       <c r="H925" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J925">
         <v>1022</v>
@@ -26773,7 +26887,7 @@
         <v>6</v>
       </c>
       <c r="H963" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J963">
         <v>1021</v>
@@ -26952,13 +27066,13 @@
         <v>3</v>
       </c>
       <c r="F970" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G970">
         <v>6</v>
       </c>
       <c r="H970" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J970">
         <v>1021</v>
@@ -26981,13 +27095,13 @@
         <v>3</v>
       </c>
       <c r="F971" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G971">
         <v>6</v>
       </c>
       <c r="H971" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J971">
         <v>1021</v>
@@ -27010,13 +27124,13 @@
         <v>3</v>
       </c>
       <c r="F972" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G972">
         <v>6</v>
       </c>
       <c r="H972" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J972">
         <v>1021</v>
@@ -27094,7 +27208,7 @@
         <v>6</v>
       </c>
       <c r="H975" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J975">
         <v>1022</v>
@@ -27655,7 +27769,7 @@
         <v>6</v>
       </c>
       <c r="H999" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J999">
         <v>1022</v>
@@ -27707,7 +27821,7 @@
         <v>6</v>
       </c>
       <c r="H1001" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="J1001">
         <v>1022</v>
@@ -27730,13 +27844,13 @@
         <v>2</v>
       </c>
       <c r="F1002" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1002">
         <v>6</v>
       </c>
       <c r="H1002" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1002">
         <v>1022</v>
@@ -27759,10 +27873,10 @@
         <v>2</v>
       </c>
       <c r="F1003" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1003" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1003">
         <v>1022</v>
@@ -27785,10 +27899,10 @@
         <v>3</v>
       </c>
       <c r="F1004" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1004" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1004">
         <v>1022</v>
@@ -27811,10 +27925,10 @@
         <v>3</v>
       </c>
       <c r="F1005" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1005" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1005">
         <v>1022</v>
@@ -27837,10 +27951,10 @@
         <v>3</v>
       </c>
       <c r="F1006" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1006" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1006">
         <v>1022</v>
@@ -27863,10 +27977,10 @@
         <v>3</v>
       </c>
       <c r="F1007" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1007" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1007">
         <v>1022</v>
@@ -27889,10 +28003,10 @@
         <v>2</v>
       </c>
       <c r="F1008" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1008" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1008">
         <v>1022</v>
@@ -27915,10 +28029,10 @@
         <v>3</v>
       </c>
       <c r="F1009" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1009" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1009">
         <v>1022</v>
@@ -27941,10 +28055,10 @@
         <v>2</v>
       </c>
       <c r="F1010" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1010" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1010">
         <v>1022</v>
@@ -27967,10 +28081,10 @@
         <v>2</v>
       </c>
       <c r="F1011" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1011" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1011">
         <v>1022</v>
@@ -27993,10 +28107,10 @@
         <v>2</v>
       </c>
       <c r="F1012" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1012" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1012">
         <v>1022</v>
@@ -28019,10 +28133,10 @@
         <v>2</v>
       </c>
       <c r="F1013" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1013" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1013">
         <v>1022</v>
@@ -28045,10 +28159,10 @@
         <v>2</v>
       </c>
       <c r="F1014" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1014" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1014">
         <v>1022</v>
@@ -28071,10 +28185,10 @@
         <v>1</v>
       </c>
       <c r="F1015" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1015" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1015">
         <v>1022</v>
@@ -28097,10 +28211,10 @@
         <v>2</v>
       </c>
       <c r="F1016" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1016" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1016">
         <v>1022</v>
@@ -28123,10 +28237,10 @@
         <v>2</v>
       </c>
       <c r="F1017" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1017" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1017">
         <v>1022</v>
@@ -28149,10 +28263,10 @@
         <v>2</v>
       </c>
       <c r="F1018" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1018" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1018">
         <v>1022</v>
@@ -28175,10 +28289,10 @@
         <v>1</v>
       </c>
       <c r="F1019" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1019" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1019">
         <v>1022</v>
@@ -28201,10 +28315,10 @@
         <v>1</v>
       </c>
       <c r="F1020" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1020" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1020">
         <v>1023</v>
@@ -28227,10 +28341,10 @@
         <v>1</v>
       </c>
       <c r="F1021" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1021" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1021">
         <v>1023</v>
@@ -28253,10 +28367,10 @@
         <v>2</v>
       </c>
       <c r="F1022" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1022" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J1022">
         <v>1023</v>
@@ -28279,10 +28393,10 @@
         <v>2</v>
       </c>
       <c r="F1023" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1023" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J1023">
         <v>1023</v>
@@ -28305,10 +28419,10 @@
         <v>2</v>
       </c>
       <c r="F1024" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1024" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1024">
         <v>1023</v>
@@ -28331,10 +28445,10 @@
         <v>1</v>
       </c>
       <c r="F1025" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1025" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1025">
         <v>1023</v>
@@ -28354,10 +28468,10 @@
         <v>0</v>
       </c>
       <c r="F1026" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1026" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1026">
         <v>1023</v>
@@ -28380,10 +28494,10 @@
         <v>1</v>
       </c>
       <c r="F1027" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1027" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1027">
         <v>1023</v>
@@ -28403,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="H1028" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J1028">
         <v>1023</v>
@@ -28426,13 +28540,13 @@
         <v>1</v>
       </c>
       <c r="F1029" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1029">
         <v>8</v>
       </c>
-      <c r="H1029" s="2">
-        <v>41426</v>
+      <c r="H1029" t="s">
+        <v>24</v>
       </c>
       <c r="J1029">
         <v>1023</v>
@@ -28458,13 +28572,13 @@
         <v>1</v>
       </c>
       <c r="F1030" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1030">
         <v>6</v>
       </c>
-      <c r="H1030" s="2">
-        <v>41488</v>
+      <c r="H1030" t="s">
+        <v>46</v>
       </c>
       <c r="J1030">
         <v>1023</v>
@@ -28490,13 +28604,13 @@
         <v>2</v>
       </c>
       <c r="F1031" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1031">
         <v>6</v>
       </c>
-      <c r="H1031" s="2">
-        <v>41458</v>
+      <c r="H1031" t="s">
+        <v>65</v>
       </c>
       <c r="J1031">
         <v>1023</v>
@@ -28522,13 +28636,13 @@
         <v>1</v>
       </c>
       <c r="F1032" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1032">
         <v>6</v>
       </c>
-      <c r="H1032" s="2">
-        <v>41459</v>
+      <c r="H1032" t="s">
+        <v>48</v>
       </c>
       <c r="J1032">
         <v>1023</v>
@@ -28612,7 +28726,7 @@
         <v>6</v>
       </c>
       <c r="H1035" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1035">
         <v>1023</v>
@@ -28784,8 +28898,8 @@
       <c r="G1042">
         <v>6</v>
       </c>
-      <c r="H1042" s="2">
-        <v>41276</v>
+      <c r="H1042" t="s">
+        <v>66</v>
       </c>
       <c r="J1042">
         <v>1023</v>
@@ -28807,8 +28921,8 @@
       <c r="G1043">
         <v>6</v>
       </c>
-      <c r="H1043" s="2">
-        <v>41276</v>
+      <c r="H1043" t="s">
+        <v>66</v>
       </c>
       <c r="J1043">
         <v>1023</v>
@@ -28831,7 +28945,7 @@
         <v>6</v>
       </c>
       <c r="H1044" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J1044">
         <v>1023</v>
@@ -28848,7 +28962,7 @@
         <v>10</v>
       </c>
       <c r="D1045" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1045">
         <v>2</v>
@@ -28856,8 +28970,8 @@
       <c r="G1045">
         <v>6</v>
       </c>
-      <c r="H1045" s="2">
-        <v>41487</v>
+      <c r="H1045" t="s">
+        <v>67</v>
       </c>
       <c r="J1045">
         <v>1023</v>
@@ -28874,16 +28988,16 @@
         <v>11</v>
       </c>
       <c r="D1046" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1046">
         <v>2</v>
       </c>
       <c r="F1046" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1046" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1046">
         <v>1023</v>
@@ -28900,16 +29014,16 @@
         <v>10</v>
       </c>
       <c r="D1047" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1047">
         <v>3</v>
       </c>
       <c r="F1047" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1047" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1047">
         <v>1023</v>
@@ -28926,16 +29040,16 @@
         <v>10</v>
       </c>
       <c r="D1048" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1048">
         <v>2</v>
       </c>
       <c r="F1048" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1048" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1048">
         <v>1023</v>
@@ -28952,16 +29066,16 @@
         <v>10</v>
       </c>
       <c r="D1049" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1049">
         <v>3</v>
       </c>
       <c r="F1049" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1049" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1049">
         <v>1023</v>
@@ -28978,16 +29092,16 @@
         <v>10</v>
       </c>
       <c r="D1050" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1050">
         <v>2</v>
       </c>
       <c r="F1050" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1050" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1050">
         <v>1024</v>
@@ -29004,16 +29118,16 @@
         <v>10</v>
       </c>
       <c r="D1051" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1051">
         <v>2</v>
       </c>
       <c r="F1051" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H1051" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J1051">
         <v>1024</v>
@@ -29030,16 +29144,16 @@
         <v>10</v>
       </c>
       <c r="D1052" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1052">
+        <v>3</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1052" t="s">
         <v>29</v>
-      </c>
-      <c r="E1052">
-        <v>3</v>
-      </c>
-      <c r="F1052" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1052" t="s">
-        <v>24</v>
       </c>
       <c r="J1052">
         <v>1024</v>
@@ -29056,16 +29170,16 @@
         <v>10</v>
       </c>
       <c r="D1053" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1053">
         <v>3</v>
       </c>
       <c r="F1053" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1053" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J1053">
         <v>1024</v>
@@ -29082,16 +29196,16 @@
         <v>10</v>
       </c>
       <c r="D1054" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1054">
         <v>3</v>
       </c>
       <c r="F1054" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1054" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J1054">
         <v>1024</v>
@@ -29108,16 +29222,16 @@
         <v>9</v>
       </c>
       <c r="D1055" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1055">
         <v>2</v>
       </c>
       <c r="F1055" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1055" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1055">
         <v>1024</v>
@@ -29134,16 +29248,16 @@
         <v>9</v>
       </c>
       <c r="D1056" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1056">
         <v>2</v>
       </c>
       <c r="F1056" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1056" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1056">
         <v>1024</v>
@@ -29166,10 +29280,10 @@
         <v>1</v>
       </c>
       <c r="F1057" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1057" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J1057">
         <v>1024</v>
@@ -29186,16 +29300,16 @@
         <v>9</v>
       </c>
       <c r="D1058" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1058">
         <v>2</v>
       </c>
       <c r="F1058" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1058" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J1058">
         <v>1023</v>
@@ -29212,16 +29326,16 @@
         <v>9</v>
       </c>
       <c r="D1059" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1059">
         <v>2</v>
       </c>
       <c r="F1059" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1059" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J1059">
         <v>1023</v>
@@ -29238,16 +29352,16 @@
         <v>9</v>
       </c>
       <c r="D1060" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1060">
+        <v>2</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1060" t="s">
         <v>29</v>
-      </c>
-      <c r="E1060">
-        <v>2</v>
-      </c>
-      <c r="F1060" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1060" t="s">
-        <v>24</v>
       </c>
       <c r="J1060">
         <v>1023</v>
@@ -29264,16 +29378,16 @@
         <v>8</v>
       </c>
       <c r="D1061" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1061">
+        <v>2</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1061" t="s">
         <v>29</v>
-      </c>
-      <c r="E1061">
-        <v>2</v>
-      </c>
-      <c r="F1061" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1061" t="s">
-        <v>24</v>
       </c>
       <c r="J1061">
         <v>1023</v>
@@ -29290,16 +29404,16 @@
         <v>8</v>
       </c>
       <c r="D1062" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1062">
         <v>2</v>
       </c>
       <c r="F1062" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1062" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J1062">
         <v>1023</v>
@@ -29316,16 +29430,16 @@
         <v>8</v>
       </c>
       <c r="D1063" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1063">
         <v>2</v>
       </c>
       <c r="F1063" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1063" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1063">
         <v>1023</v>
@@ -29348,13 +29462,13 @@
         <v>2</v>
       </c>
       <c r="F1064" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1064">
         <v>8</v>
       </c>
-      <c r="H1064" s="2">
-        <v>41518</v>
+      <c r="H1064" t="s">
+        <v>50</v>
       </c>
       <c r="J1064">
         <v>1023</v>
@@ -29374,19 +29488,19 @@
         <v>8</v>
       </c>
       <c r="D1065" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1065">
         <v>2</v>
       </c>
       <c r="F1065" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1065">
         <v>8</v>
       </c>
-      <c r="H1065" s="2">
-        <v>41306</v>
+      <c r="H1065" t="s">
+        <v>31</v>
       </c>
       <c r="J1065">
         <v>1023</v>
@@ -29412,10 +29526,10 @@
         <v>3</v>
       </c>
       <c r="F1066" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="H1066" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J1066">
         <v>1023</v>
@@ -29432,16 +29546,16 @@
         <v>7</v>
       </c>
       <c r="D1067" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1067">
         <v>3</v>
       </c>
       <c r="F1067" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H1067" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J1067">
         <v>1024</v>
@@ -29458,19 +29572,19 @@
         <v>7</v>
       </c>
       <c r="D1068" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1068">
         <v>3</v>
       </c>
       <c r="F1068" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1068">
         <v>8</v>
       </c>
-      <c r="H1068" s="2">
-        <v>41275</v>
+      <c r="H1068" t="s">
+        <v>62</v>
       </c>
       <c r="J1068">
         <v>1024</v>
@@ -29496,13 +29610,13 @@
         <v>3</v>
       </c>
       <c r="F1069" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1069">
         <v>8</v>
       </c>
-      <c r="H1069" s="2">
-        <v>41518</v>
+      <c r="H1069" t="s">
+        <v>50</v>
       </c>
       <c r="J1069">
         <v>1024</v>
@@ -29528,13 +29642,13 @@
         <v>3</v>
       </c>
       <c r="F1070" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1070">
         <v>8</v>
       </c>
-      <c r="H1070" s="2">
-        <v>41487</v>
+      <c r="H1070" t="s">
+        <v>67</v>
       </c>
       <c r="J1070">
         <v>1024</v>
@@ -29560,13 +29674,13 @@
         <v>3</v>
       </c>
       <c r="F1071" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1071">
         <v>8</v>
       </c>
-      <c r="H1071" s="2">
-        <v>41396</v>
+      <c r="H1071" t="s">
+        <v>56</v>
       </c>
       <c r="J1071">
         <v>1024</v>
@@ -29592,13 +29706,13 @@
         <v>2</v>
       </c>
       <c r="F1072" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1072">
         <v>8</v>
       </c>
-      <c r="H1072" s="2">
-        <v>41395</v>
+      <c r="H1072" t="s">
+        <v>70</v>
       </c>
       <c r="J1072">
         <v>1024</v>
@@ -29624,13 +29738,13 @@
         <v>2</v>
       </c>
       <c r="F1073" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1073">
         <v>8</v>
       </c>
-      <c r="H1073" s="2">
-        <v>41518</v>
+      <c r="H1073" t="s">
+        <v>50</v>
       </c>
       <c r="J1073">
         <v>1024</v>
@@ -29656,13 +29770,13 @@
         <v>3</v>
       </c>
       <c r="F1074" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1074">
         <v>8</v>
       </c>
-      <c r="H1074" s="2">
-        <v>41518</v>
+      <c r="H1074" t="s">
+        <v>50</v>
       </c>
       <c r="J1074">
         <v>1024</v>
@@ -29688,13 +29802,13 @@
         <v>3</v>
       </c>
       <c r="F1075" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1075">
         <v>8</v>
       </c>
-      <c r="H1075" s="2">
-        <v>41457</v>
+      <c r="H1075" t="s">
+        <v>54</v>
       </c>
       <c r="J1075">
         <v>1025</v>
@@ -29720,13 +29834,13 @@
         <v>3</v>
       </c>
       <c r="F1076" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1076">
         <v>8</v>
       </c>
-      <c r="H1076" s="2">
-        <v>41396</v>
+      <c r="H1076" t="s">
+        <v>56</v>
       </c>
       <c r="J1076">
         <v>1026</v>
@@ -29752,13 +29866,13 @@
         <v>2</v>
       </c>
       <c r="F1077" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1077">
         <v>8</v>
       </c>
-      <c r="H1077" s="2">
-        <v>41366</v>
+      <c r="H1077" t="s">
+        <v>71</v>
       </c>
       <c r="J1077">
         <v>1025</v>
@@ -29784,7 +29898,7 @@
         <v>2</v>
       </c>
       <c r="F1078" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1078">
         <v>8</v>
@@ -29816,7 +29930,7 @@
         <v>3</v>
       </c>
       <c r="F1079" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1079">
         <v>8</v>
@@ -29848,13 +29962,13 @@
         <v>2</v>
       </c>
       <c r="F1080" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1080">
         <v>8</v>
       </c>
       <c r="H1080" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1080">
         <v>1024</v>
@@ -29880,7 +29994,7 @@
         <v>3</v>
       </c>
       <c r="F1081" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1081">
         <v>8</v>
@@ -29970,13 +30084,13 @@
         <v>3</v>
       </c>
       <c r="F1084" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1084">
         <v>8</v>
       </c>
-      <c r="H1084" s="2">
-        <v>41335</v>
+      <c r="H1084" t="s">
+        <v>39</v>
       </c>
       <c r="J1084">
         <v>1024</v>
@@ -30002,13 +30116,13 @@
         <v>3</v>
       </c>
       <c r="F1085" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1085">
         <v>8</v>
       </c>
-      <c r="H1085" s="2">
-        <v>41277</v>
+      <c r="H1085" t="s">
+        <v>23</v>
       </c>
       <c r="J1085">
         <v>1024</v>
@@ -30034,13 +30148,13 @@
         <v>3</v>
       </c>
       <c r="F1086" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G1086">
         <v>8</v>
       </c>
-      <c r="H1086" s="2">
-        <v>41367</v>
+      <c r="H1086" t="s">
+        <v>37</v>
       </c>
       <c r="J1086">
         <v>1024</v>
@@ -30066,13 +30180,13 @@
         <v>2</v>
       </c>
       <c r="F1087" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1087">
         <v>8</v>
       </c>
       <c r="H1087" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1087">
         <v>1024</v>
@@ -30098,7 +30212,7 @@
         <v>2</v>
       </c>
       <c r="F1088" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1088">
         <v>8</v>
@@ -30127,13 +30241,13 @@
         <v>0</v>
       </c>
       <c r="F1089" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1089">
         <v>8</v>
       </c>
       <c r="H1089" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1089">
         <v>1024</v>
@@ -30159,13 +30273,13 @@
         <v>2</v>
       </c>
       <c r="F1090" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1090">
         <v>8</v>
       </c>
-      <c r="H1090" s="2">
-        <v>41520</v>
+      <c r="H1090" t="s">
+        <v>72</v>
       </c>
       <c r="J1090">
         <v>1024</v>
@@ -30191,13 +30305,13 @@
         <v>2</v>
       </c>
       <c r="F1091" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1091">
         <v>8</v>
       </c>
-      <c r="H1091" s="2">
-        <v>41427</v>
+      <c r="H1091" t="s">
+        <v>45</v>
       </c>
       <c r="J1091">
         <v>1024</v>
@@ -30220,13 +30334,13 @@
         <v>0</v>
       </c>
       <c r="F1092" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1092">
         <v>6</v>
       </c>
-      <c r="H1092" s="2">
-        <v>41457</v>
+      <c r="H1092" t="s">
+        <v>54</v>
       </c>
       <c r="J1092">
         <v>1024</v>
@@ -30252,13 +30366,13 @@
         <v>1</v>
       </c>
       <c r="F1093" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1093">
         <v>8</v>
       </c>
-      <c r="H1093" s="2">
-        <v>41427</v>
+      <c r="H1093" t="s">
+        <v>45</v>
       </c>
       <c r="J1093">
         <v>1024</v>
@@ -30284,13 +30398,13 @@
         <v>1</v>
       </c>
       <c r="F1094" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1094">
         <v>8</v>
       </c>
-      <c r="H1094" s="2">
-        <v>41308</v>
+      <c r="H1094" t="s">
+        <v>61</v>
       </c>
       <c r="J1094">
         <v>1024</v>
@@ -30313,13 +30427,13 @@
         <v>0</v>
       </c>
       <c r="F1095" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1095">
         <v>8</v>
       </c>
-      <c r="H1095" s="2">
-        <v>41396</v>
+      <c r="H1095" t="s">
+        <v>56</v>
       </c>
       <c r="J1095">
         <v>1024</v>
@@ -30345,13 +30459,13 @@
         <v>2</v>
       </c>
       <c r="F1096" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1096">
         <v>8</v>
       </c>
-      <c r="H1096" s="2">
-        <v>41309</v>
+      <c r="H1096" t="s">
+        <v>35</v>
       </c>
       <c r="J1096">
         <v>1024</v>
@@ -30377,13 +30491,13 @@
         <v>2</v>
       </c>
       <c r="F1097" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1097">
         <v>6</v>
       </c>
-      <c r="H1097" s="2">
-        <v>41429</v>
+      <c r="H1097" t="s">
+        <v>58</v>
       </c>
       <c r="J1097">
         <v>1024</v>
@@ -30406,13 +30520,13 @@
         <v>0</v>
       </c>
       <c r="F1098" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1098">
         <v>4</v>
       </c>
       <c r="H1098" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1098">
         <v>1024</v>
@@ -30432,19 +30546,19 @@
         <v>9</v>
       </c>
       <c r="D1099" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1099">
         <v>1</v>
       </c>
       <c r="F1099" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1099">
         <v>6</v>
       </c>
       <c r="H1099" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1099">
         <v>1024</v>
@@ -30464,7 +30578,7 @@
         <v>9</v>
       </c>
       <c r="D1100" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1100">
         <v>2</v>
@@ -30493,7 +30607,7 @@
         <v>9</v>
       </c>
       <c r="D1101" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1101">
         <v>2</v>
@@ -30522,7 +30636,7 @@
         <v>9</v>
       </c>
       <c r="D1102" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1102">
         <v>2</v>
@@ -30551,7 +30665,7 @@
         <v>9</v>
       </c>
       <c r="D1103" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1103">
         <v>3</v>
@@ -30580,7 +30694,7 @@
         <v>9</v>
       </c>
       <c r="D1104" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1104">
         <v>3</v>
@@ -30609,7 +30723,7 @@
         <v>9</v>
       </c>
       <c r="D1105" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1105">
         <v>3</v>
@@ -30638,7 +30752,7 @@
         <v>9</v>
       </c>
       <c r="D1106" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1106">
         <v>3</v>
@@ -30667,7 +30781,7 @@
         <v>8</v>
       </c>
       <c r="D1107" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1107">
         <v>4</v>
@@ -30696,7 +30810,7 @@
         <v>8</v>
       </c>
       <c r="D1108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1108">
         <v>3</v>
@@ -30725,7 +30839,7 @@
         <v>7</v>
       </c>
       <c r="D1109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1109">
         <v>3</v>
@@ -30754,7 +30868,7 @@
         <v>6</v>
       </c>
       <c r="D1110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1110">
         <v>3</v>
@@ -30783,7 +30897,7 @@
         <v>7</v>
       </c>
       <c r="D1111" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1111">
         <v>3</v>
@@ -30812,7 +30926,7 @@
         <v>7</v>
       </c>
       <c r="D1112" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1112">
         <v>3</v>
@@ -30841,7 +30955,7 @@
         <v>6</v>
       </c>
       <c r="D1113" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1113">
         <v>3</v>
@@ -30870,7 +30984,7 @@
         <v>6</v>
       </c>
       <c r="D1114" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1114">
         <v>3</v>
@@ -30899,7 +31013,7 @@
         <v>6</v>
       </c>
       <c r="D1115" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1115">
         <v>3</v>
@@ -30928,7 +31042,7 @@
         <v>6</v>
       </c>
       <c r="D1116" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1116">
         <v>3</v>
@@ -30957,7 +31071,7 @@
         <v>6</v>
       </c>
       <c r="D1117" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1117">
         <v>3</v>
@@ -30986,7 +31100,7 @@
         <v>6</v>
       </c>
       <c r="D1118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1118">
         <v>3</v>
@@ -31015,7 +31129,7 @@
         <v>6</v>
       </c>
       <c r="D1119" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1119">
         <v>3</v>
@@ -31044,7 +31158,7 @@
         <v>6</v>
       </c>
       <c r="D1120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1120">
         <v>4</v>
@@ -31073,7 +31187,7 @@
         <v>6</v>
       </c>
       <c r="D1121" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1121">
         <v>3</v>
@@ -31102,7 +31216,7 @@
         <v>6</v>
       </c>
       <c r="D1122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1122">
         <v>3</v>
@@ -31131,7 +31245,7 @@
         <v>6</v>
       </c>
       <c r="D1123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1123">
         <v>3</v>
@@ -31160,7 +31274,7 @@
         <v>7</v>
       </c>
       <c r="D1124" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1124">
         <v>3</v>
@@ -31189,7 +31303,7 @@
         <v>7</v>
       </c>
       <c r="D1125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1125">
         <v>3</v>
@@ -31218,7 +31332,7 @@
         <v>7</v>
       </c>
       <c r="D1126" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1126">
         <v>2</v>
@@ -31247,7 +31361,7 @@
         <v>8</v>
       </c>
       <c r="D1127" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1127">
         <v>2</v>
@@ -31276,7 +31390,7 @@
         <v>8</v>
       </c>
       <c r="D1128" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1128">
         <v>2</v>
@@ -31334,7 +31448,7 @@
         <v>8</v>
       </c>
       <c r="D1130" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1130">
         <v>2</v>
@@ -31363,7 +31477,7 @@
         <v>8</v>
       </c>
       <c r="D1131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1131">
         <v>3</v>
@@ -31392,7 +31506,7 @@
         <v>8</v>
       </c>
       <c r="D1132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1132">
         <v>2</v>
@@ -31421,7 +31535,7 @@
         <v>8</v>
       </c>
       <c r="D1133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1133">
         <v>3</v>
@@ -31450,7 +31564,7 @@
         <v>7</v>
       </c>
       <c r="D1134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1134">
         <v>3</v>
@@ -31479,7 +31593,7 @@
         <v>7</v>
       </c>
       <c r="D1135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1135">
         <v>3</v>
@@ -31508,7 +31622,7 @@
         <v>6</v>
       </c>
       <c r="D1136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1136">
         <v>2</v>
@@ -31531,7 +31645,7 @@
         <v>6</v>
       </c>
       <c r="D1137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1137">
         <v>2</v>
@@ -31577,7 +31691,7 @@
         <v>6</v>
       </c>
       <c r="D1139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1139">
         <v>2</v>
@@ -31623,7 +31737,7 @@
         <v>5</v>
       </c>
       <c r="D1141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1141">
         <v>2</v>
@@ -31649,7 +31763,7 @@
         <v>5</v>
       </c>
       <c r="D1142" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1142">
         <v>3</v>
@@ -31707,7 +31821,7 @@
         <v>5</v>
       </c>
       <c r="D1144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1144">
         <v>2</v>
@@ -31736,7 +31850,7 @@
         <v>5</v>
       </c>
       <c r="D1145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1145">
         <v>2</v>
@@ -31957,7 +32071,7 @@
         <v>6</v>
       </c>
       <c r="H1152" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1152">
         <v>1016</v>
@@ -32122,7 +32236,7 @@
         <v>6</v>
       </c>
       <c r="H1158" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1158">
         <v>1015</v>
@@ -32151,7 +32265,7 @@
         <v>6</v>
       </c>
       <c r="H1159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1159">
         <v>1015</v>
@@ -32232,13 +32346,13 @@
         <v>1</v>
       </c>
       <c r="F1162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1162">
         <v>6</v>
       </c>
-      <c r="H1162" s="2">
-        <v>41459</v>
+      <c r="H1162" t="s">
+        <v>48</v>
       </c>
       <c r="J1162">
         <v>1014</v>
@@ -32264,13 +32378,13 @@
         <v>2</v>
       </c>
       <c r="F1163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1163">
         <v>6</v>
       </c>
-      <c r="H1163" s="2">
-        <v>41278</v>
+      <c r="H1163" t="s">
+        <v>49</v>
       </c>
       <c r="J1163">
         <v>1013</v>
@@ -32296,13 +32410,13 @@
         <v>2</v>
       </c>
       <c r="F1164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1164">
         <v>6</v>
       </c>
-      <c r="H1164" s="2">
-        <v>41458</v>
+      <c r="H1164" t="s">
+        <v>65</v>
       </c>
       <c r="J1164">
         <v>1013</v>
@@ -32328,13 +32442,13 @@
         <v>2</v>
       </c>
       <c r="F1165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1165">
         <v>8</v>
       </c>
-      <c r="H1165" s="2">
-        <v>41368</v>
+      <c r="H1165" t="s">
+        <v>43</v>
       </c>
       <c r="J1165">
         <v>1014</v>
@@ -32360,13 +32474,13 @@
         <v>2</v>
       </c>
       <c r="F1166" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1166">
         <v>8</v>
       </c>
       <c r="H1166" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1166">
         <v>1013</v>
@@ -32392,13 +32506,13 @@
         <v>2</v>
       </c>
       <c r="F1167" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1167">
         <v>8</v>
       </c>
       <c r="H1167" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1167">
         <v>1013</v>
@@ -32424,13 +32538,13 @@
         <v>2</v>
       </c>
       <c r="F1168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1168">
         <v>8</v>
       </c>
       <c r="H1168" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1168">
         <v>1013</v>
@@ -32604,7 +32718,7 @@
         <v>8</v>
       </c>
       <c r="H1174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1174">
         <v>1012</v>
@@ -32633,7 +32747,7 @@
         <v>8</v>
       </c>
       <c r="H1175" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1175">
         <v>1011</v>
@@ -32662,7 +32776,7 @@
         <v>8</v>
       </c>
       <c r="H1176" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1176">
         <v>1011</v>
@@ -32804,13 +32918,13 @@
         <v>2</v>
       </c>
       <c r="F1181" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1181">
         <v>8</v>
       </c>
-      <c r="H1181" s="2">
-        <v>41520</v>
+      <c r="H1181" t="s">
+        <v>72</v>
       </c>
       <c r="J1181">
         <v>1008</v>
@@ -32836,13 +32950,13 @@
         <v>3</v>
       </c>
       <c r="F1182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1182">
         <v>8</v>
       </c>
-      <c r="H1182" s="2">
-        <v>41309</v>
+      <c r="H1182" t="s">
+        <v>35</v>
       </c>
       <c r="J1182">
         <v>1008</v>
@@ -32868,13 +32982,13 @@
         <v>3</v>
       </c>
       <c r="F1183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1183">
         <v>8</v>
       </c>
-      <c r="H1183" s="2">
-        <v>41367</v>
+      <c r="H1183" t="s">
+        <v>37</v>
       </c>
       <c r="J1183">
         <v>1007</v>
@@ -32900,13 +33014,13 @@
         <v>3</v>
       </c>
       <c r="F1184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1184">
         <v>8</v>
       </c>
-      <c r="H1184" s="2">
-        <v>41277</v>
+      <c r="H1184" t="s">
+        <v>23</v>
       </c>
       <c r="J1184">
         <v>1007</v>
@@ -32932,13 +33046,13 @@
         <v>3</v>
       </c>
       <c r="F1185" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1185">
         <v>8</v>
       </c>
-      <c r="H1185" s="2">
-        <v>41307</v>
+      <c r="H1185" t="s">
+        <v>73</v>
       </c>
       <c r="J1185">
         <v>1007</v>
@@ -32964,13 +33078,13 @@
         <v>3</v>
       </c>
       <c r="F1186" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1186">
         <v>8</v>
       </c>
-      <c r="H1186" s="2">
-        <v>41519</v>
+      <c r="H1186" t="s">
+        <v>36</v>
       </c>
       <c r="J1186">
         <v>1007</v>
@@ -32996,13 +33110,13 @@
         <v>3</v>
       </c>
       <c r="F1187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1187">
         <v>8</v>
       </c>
-      <c r="H1187" s="2">
-        <v>41396</v>
+      <c r="H1187" t="s">
+        <v>56</v>
       </c>
       <c r="J1187">
         <v>1006</v>
@@ -33028,13 +33142,13 @@
         <v>3</v>
       </c>
       <c r="F1188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1188">
         <v>8</v>
       </c>
-      <c r="H1188" s="2">
-        <v>41457</v>
+      <c r="H1188" t="s">
+        <v>54</v>
       </c>
       <c r="J1188">
         <v>1006</v>
@@ -33060,13 +33174,13 @@
         <v>3</v>
       </c>
       <c r="F1189" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1189">
         <v>8</v>
       </c>
-      <c r="H1189" s="2">
-        <v>41396</v>
+      <c r="H1189" t="s">
+        <v>56</v>
       </c>
       <c r="J1189">
         <v>1006</v>
@@ -33092,13 +33206,13 @@
         <v>3</v>
       </c>
       <c r="F1190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1190">
         <v>8</v>
       </c>
-      <c r="H1190" s="2">
-        <v>41427</v>
+      <c r="H1190" t="s">
+        <v>45</v>
       </c>
       <c r="J1190">
         <v>1005</v>
@@ -33129,8 +33243,8 @@
       <c r="G1191">
         <v>4</v>
       </c>
-      <c r="H1191" s="2">
-        <v>41427</v>
+      <c r="H1191" t="s">
+        <v>45</v>
       </c>
       <c r="J1191">
         <v>1005</v>
@@ -33161,8 +33275,8 @@
       <c r="G1192">
         <v>4</v>
       </c>
-      <c r="H1192" s="2">
-        <v>41427</v>
+      <c r="H1192" t="s">
+        <v>45</v>
       </c>
       <c r="J1192">
         <v>1005</v>
@@ -33193,8 +33307,8 @@
       <c r="G1193">
         <v>4</v>
       </c>
-      <c r="H1193" s="2">
-        <v>41337</v>
+      <c r="H1193" t="s">
+        <v>21</v>
       </c>
       <c r="J1193">
         <v>1005</v>
@@ -33225,8 +33339,8 @@
       <c r="G1194">
         <v>6</v>
       </c>
-      <c r="H1194" s="2">
-        <v>41489</v>
+      <c r="H1194" t="s">
+        <v>59</v>
       </c>
       <c r="J1194">
         <v>1005</v>
@@ -33258,7 +33372,7 @@
         <v>6</v>
       </c>
       <c r="H1195" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1195">
         <v>1005</v>
@@ -33289,8 +33403,8 @@
       <c r="G1196">
         <v>6</v>
       </c>
-      <c r="H1196" s="2">
-        <v>41368</v>
+      <c r="H1196" t="s">
+        <v>43</v>
       </c>
       <c r="J1196">
         <v>1005</v>
@@ -33321,8 +33435,8 @@
       <c r="G1197">
         <v>6</v>
       </c>
-      <c r="H1197" s="2">
-        <v>41490</v>
+      <c r="H1197" t="s">
+        <v>74</v>
       </c>
       <c r="J1197">
         <v>1004</v>
@@ -33354,7 +33468,7 @@
         <v>6</v>
       </c>
       <c r="H1198" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1198">
         <v>1004</v>
@@ -33716,8 +33830,8 @@
       <c r="G1210">
         <v>4</v>
       </c>
-      <c r="H1210" s="2">
-        <v>41398</v>
+      <c r="H1210" t="s">
+        <v>15</v>
       </c>
       <c r="J1210">
         <v>1004</v>
@@ -34262,7 +34376,7 @@
         <v>6</v>
       </c>
       <c r="D1229" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1229">
         <v>5</v>
@@ -34291,7 +34405,7 @@
         <v>6</v>
       </c>
       <c r="D1230" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1230">
         <v>4</v>
@@ -34320,7 +34434,7 @@
         <v>5</v>
       </c>
       <c r="D1231" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1231">
         <v>4</v>
@@ -34378,7 +34492,7 @@
         <v>4</v>
       </c>
       <c r="D1233" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1233">
         <v>3</v>
@@ -34401,7 +34515,7 @@
         <v>4</v>
       </c>
       <c r="D1234" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1234">
         <v>2</v>
@@ -34424,7 +34538,7 @@
         <v>3</v>
       </c>
       <c r="D1235" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1235">
         <v>3</v>
@@ -34655,7 +34769,7 @@
         <v>4</v>
       </c>
       <c r="F1244" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1244">
         <v>4</v>
@@ -34687,7 +34801,7 @@
         <v>5</v>
       </c>
       <c r="F1245" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1245">
         <v>4</v>
@@ -34719,7 +34833,7 @@
         <v>4</v>
       </c>
       <c r="F1246" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1246">
         <v>4</v>
@@ -34751,7 +34865,7 @@
         <v>4</v>
       </c>
       <c r="F1247" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1247">
         <v>4</v>
@@ -34783,7 +34897,7 @@
         <v>5</v>
       </c>
       <c r="F1248" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1248">
         <v>4</v>
@@ -34815,7 +34929,7 @@
         <v>5</v>
       </c>
       <c r="F1249" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1249">
         <v>4</v>
@@ -34847,7 +34961,7 @@
         <v>6</v>
       </c>
       <c r="F1250" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1250">
         <v>4</v>
@@ -34946,7 +35060,7 @@
         <v>4</v>
       </c>
       <c r="H1253" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1253">
         <v>1005</v>
@@ -35010,7 +35124,7 @@
         <v>4</v>
       </c>
       <c r="H1255" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1255">
         <v>1004</v>
@@ -35074,7 +35188,7 @@
         <v>4</v>
       </c>
       <c r="H1257" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1257">
         <v>1003</v>
@@ -35138,7 +35252,7 @@
         <v>4</v>
       </c>
       <c r="H1259" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1259">
         <v>1001</v>
@@ -36223,13 +36337,13 @@
         <v>5</v>
       </c>
       <c r="F1296" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1296">
         <v>6</v>
       </c>
-      <c r="H1296" s="2">
-        <v>41490</v>
+      <c r="H1296" t="s">
+        <v>74</v>
       </c>
       <c r="J1296">
         <v>993</v>
@@ -36357,7 +36471,7 @@
         <v>6</v>
       </c>
       <c r="H1300" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1300">
         <v>996</v>
@@ -36389,7 +36503,7 @@
         <v>6</v>
       </c>
       <c r="H1301" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1301">
         <v>996</v>
@@ -36638,8 +36752,8 @@
       <c r="G1309">
         <v>6</v>
       </c>
-      <c r="H1309" s="2">
-        <v>41278</v>
+      <c r="H1309" t="s">
+        <v>49</v>
       </c>
       <c r="J1309">
         <v>999</v>
@@ -36734,8 +36848,8 @@
       <c r="G1312">
         <v>6</v>
       </c>
-      <c r="H1312" s="2">
-        <v>41398</v>
+      <c r="H1312" t="s">
+        <v>15</v>
       </c>
       <c r="J1312">
         <v>1001</v>
@@ -36831,7 +36945,7 @@
         <v>6</v>
       </c>
       <c r="H1315" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1315">
         <v>1002</v>
@@ -37023,7 +37137,7 @@
         <v>6</v>
       </c>
       <c r="H1321" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1321">
         <v>1004</v>
@@ -37054,8 +37168,8 @@
       <c r="G1322">
         <v>6</v>
       </c>
-      <c r="H1322" s="2">
-        <v>41337</v>
+      <c r="H1322" t="s">
+        <v>21</v>
       </c>
       <c r="J1322">
         <v>1004</v>
@@ -37145,7 +37259,7 @@
         <v>4</v>
       </c>
       <c r="F1325" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1325">
         <v>6</v>
@@ -37177,13 +37291,13 @@
         <v>4</v>
       </c>
       <c r="F1326" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1326">
         <v>6</v>
       </c>
-      <c r="H1326" s="2">
-        <v>41519</v>
+      <c r="H1326" t="s">
+        <v>36</v>
       </c>
       <c r="J1326">
         <v>1006</v>
@@ -37209,13 +37323,13 @@
         <v>4</v>
       </c>
       <c r="F1327" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1327">
         <v>6</v>
       </c>
-      <c r="H1327" s="2">
-        <v>41519</v>
+      <c r="H1327" t="s">
+        <v>36</v>
       </c>
       <c r="J1327">
         <v>1006</v>
@@ -37241,7 +37355,7 @@
         <v>3</v>
       </c>
       <c r="F1328" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1328">
         <v>6</v>
@@ -37273,7 +37387,7 @@
         <v>4</v>
       </c>
       <c r="F1329" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1329">
         <v>6</v>
@@ -37421,7 +37535,7 @@
         <v>6</v>
       </c>
       <c r="F1334" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1334">
         <v>6</v>
@@ -37453,7 +37567,7 @@
         <v>4</v>
       </c>
       <c r="F1335" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1335">
         <v>6</v>
@@ -37508,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="D1337" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1337">
         <v>3</v>
@@ -37537,7 +37651,7 @@
         <v>0</v>
       </c>
       <c r="D1338" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1338">
         <v>4</v>
@@ -37566,7 +37680,7 @@
         <v>0</v>
       </c>
       <c r="D1339" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1339">
         <v>4</v>
@@ -37595,7 +37709,7 @@
         <v>0</v>
       </c>
       <c r="D1340" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1340">
         <v>3</v>
@@ -37624,7 +37738,7 @@
         <v>0</v>
       </c>
       <c r="D1341" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1341">
         <v>4</v>
@@ -37653,7 +37767,7 @@
         <v>0</v>
       </c>
       <c r="D1342" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1342">
         <v>3</v>
@@ -37682,7 +37796,7 @@
         <v>0</v>
       </c>
       <c r="D1343" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1343">
         <v>4</v>
@@ -37711,7 +37825,7 @@
         <v>0</v>
       </c>
       <c r="D1344" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1344">
         <v>4</v>
@@ -37740,7 +37854,7 @@
         <v>0</v>
       </c>
       <c r="D1345" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1345">
         <v>3</v>
@@ -37769,7 +37883,7 @@
         <v>0</v>
       </c>
       <c r="D1346" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1346">
         <v>3</v>
@@ -37798,7 +37912,7 @@
         <v>0</v>
       </c>
       <c r="D1347" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1347">
         <v>3</v>
@@ -37827,7 +37941,7 @@
         <v>0</v>
       </c>
       <c r="D1348" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1348">
         <v>3</v>
@@ -37856,7 +37970,7 @@
         <v>0</v>
       </c>
       <c r="D1349" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1349">
         <v>3</v>
@@ -37885,7 +37999,7 @@
         <v>0</v>
       </c>
       <c r="D1350" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E1350">
         <v>3</v>
@@ -37914,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="D1351" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1351">
         <v>3</v>
@@ -37943,7 +38057,7 @@
         <v>0</v>
       </c>
       <c r="D1352" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1352">
         <v>4</v>
@@ -37972,7 +38086,7 @@
         <v>0</v>
       </c>
       <c r="D1353" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1353">
         <v>4</v>
@@ -38001,7 +38115,7 @@
         <v>0</v>
       </c>
       <c r="D1354" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1354">
         <v>4</v>
@@ -38030,7 +38144,7 @@
         <v>0</v>
       </c>
       <c r="D1355" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1355">
         <v>3</v>
@@ -38059,7 +38173,7 @@
         <v>0</v>
       </c>
       <c r="D1356" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1356">
         <v>4</v>
@@ -38088,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="D1357" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1357">
         <v>4</v>
@@ -38117,7 +38231,7 @@
         <v>0</v>
       </c>
       <c r="D1358" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1358">
         <v>4</v>
@@ -38384,13 +38498,13 @@
         <v>5</v>
       </c>
       <c r="F1367" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1367">
         <v>6</v>
       </c>
-      <c r="H1367" s="2">
-        <v>41396</v>
+      <c r="H1367" t="s">
+        <v>56</v>
       </c>
       <c r="J1367">
         <v>1011</v>
@@ -38416,13 +38530,13 @@
         <v>5</v>
       </c>
       <c r="F1368" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1368">
         <v>6</v>
       </c>
-      <c r="H1368" s="2">
-        <v>41429</v>
+      <c r="H1368" t="s">
+        <v>58</v>
       </c>
       <c r="J1368">
         <v>1011</v>
@@ -38448,13 +38562,13 @@
         <v>4</v>
       </c>
       <c r="F1369" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1369">
         <v>6</v>
       </c>
-      <c r="H1369" s="2">
-        <v>41308</v>
+      <c r="H1369" t="s">
+        <v>61</v>
       </c>
       <c r="J1369">
         <v>1011</v>
@@ -38480,13 +38594,13 @@
         <v>5</v>
       </c>
       <c r="F1370" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1370">
         <v>6</v>
       </c>
-      <c r="H1370" s="2">
-        <v>41458</v>
+      <c r="H1370" t="s">
+        <v>65</v>
       </c>
       <c r="J1370">
         <v>1011</v>
@@ -38512,7 +38626,7 @@
         <v>5</v>
       </c>
       <c r="F1371" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1371">
         <v>6</v>
@@ -38544,13 +38658,13 @@
         <v>4</v>
       </c>
       <c r="F1372" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G1372">
         <v>6</v>
       </c>
       <c r="H1372" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1372">
         <v>1010</v>
@@ -38605,7 +38719,7 @@
         <v>4</v>
       </c>
       <c r="F1374" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1374">
         <v>6</v>
@@ -38637,13 +38751,13 @@
         <v>4</v>
       </c>
       <c r="F1375" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1375">
         <v>6</v>
       </c>
-      <c r="H1375" s="2">
-        <v>41457</v>
+      <c r="H1375" t="s">
+        <v>54</v>
       </c>
       <c r="J1375">
         <v>1010</v>
@@ -38669,13 +38783,13 @@
         <v>4</v>
       </c>
       <c r="F1376" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1376">
         <v>6</v>
       </c>
-      <c r="H1376" s="2">
-        <v>41521</v>
+      <c r="H1376" t="s">
+        <v>57</v>
       </c>
       <c r="J1376">
         <v>1009</v>
@@ -38701,13 +38815,13 @@
         <v>5</v>
       </c>
       <c r="F1377" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1377">
         <v>6</v>
       </c>
-      <c r="H1377" s="2">
-        <v>41458</v>
+      <c r="H1377" t="s">
+        <v>65</v>
       </c>
       <c r="J1377">
         <v>1009</v>
@@ -38733,13 +38847,13 @@
         <v>4</v>
       </c>
       <c r="F1378" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1378">
         <v>6</v>
       </c>
-      <c r="H1378" s="2">
-        <v>41459</v>
+      <c r="H1378" t="s">
+        <v>48</v>
       </c>
       <c r="J1378">
         <v>1009</v>
@@ -38765,7 +38879,7 @@
         <v>3</v>
       </c>
       <c r="F1379" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1379">
         <v>8</v>
@@ -38797,7 +38911,7 @@
         <v>4</v>
       </c>
       <c r="F1380" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1380">
         <v>8</v>
@@ -38829,13 +38943,13 @@
         <v>3</v>
       </c>
       <c r="F1381" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1381">
         <v>8</v>
       </c>
-      <c r="H1381" s="2">
-        <v>41335</v>
+      <c r="H1381" t="s">
+        <v>39</v>
       </c>
       <c r="J1381">
         <v>1009</v>
@@ -38861,13 +38975,13 @@
         <v>3</v>
       </c>
       <c r="F1382" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1382">
         <v>8</v>
       </c>
-      <c r="H1382" s="2">
-        <v>41488</v>
+      <c r="H1382" t="s">
+        <v>46</v>
       </c>
       <c r="J1382">
         <v>1009</v>
@@ -38893,13 +39007,13 @@
         <v>2</v>
       </c>
       <c r="F1383" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1383">
         <v>8</v>
       </c>
-      <c r="H1383" s="2">
-        <v>41520</v>
+      <c r="H1383" t="s">
+        <v>72</v>
       </c>
       <c r="J1383">
         <v>1009</v>
@@ -38925,13 +39039,13 @@
         <v>3</v>
       </c>
       <c r="F1384" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1384">
         <v>8</v>
       </c>
-      <c r="H1384" s="2">
-        <v>41336</v>
+      <c r="H1384" t="s">
+        <v>22</v>
       </c>
       <c r="J1384">
         <v>1009</v>
@@ -38957,13 +39071,13 @@
         <v>3</v>
       </c>
       <c r="F1385" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1385">
         <v>8</v>
       </c>
-      <c r="H1385" s="2">
-        <v>41368</v>
+      <c r="H1385" t="s">
+        <v>43</v>
       </c>
       <c r="J1385">
         <v>1009</v>
@@ -38989,13 +39103,13 @@
         <v>3</v>
       </c>
       <c r="F1386" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1386">
         <v>8</v>
       </c>
-      <c r="H1386" s="2">
-        <v>41308</v>
+      <c r="H1386" t="s">
+        <v>61</v>
       </c>
       <c r="J1386">
         <v>1008</v>
@@ -39021,7 +39135,7 @@
         <v>4</v>
       </c>
       <c r="F1387" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1387">
         <v>6</v>
@@ -39053,7 +39167,7 @@
         <v>3</v>
       </c>
       <c r="F1388" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1388">
         <v>6</v>
@@ -39085,7 +39199,7 @@
         <v>3</v>
       </c>
       <c r="F1389" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1389">
         <v>6</v>
@@ -39117,7 +39231,7 @@
         <v>3</v>
       </c>
       <c r="F1390" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1390">
         <v>6</v>
@@ -39265,13 +39379,13 @@
         <v>2</v>
       </c>
       <c r="F1395" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1395">
         <v>6</v>
       </c>
-      <c r="H1395" s="2">
-        <v>41428</v>
+      <c r="H1395" t="s">
+        <v>34</v>
       </c>
       <c r="J1395">
         <v>1007</v>
@@ -39297,13 +39411,13 @@
         <v>2</v>
       </c>
       <c r="F1396" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1396">
         <v>6</v>
       </c>
       <c r="H1396" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1396">
         <v>1006</v>
@@ -39329,13 +39443,13 @@
         <v>1</v>
       </c>
       <c r="F1397" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1397">
         <v>6</v>
       </c>
       <c r="H1397" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1397">
         <v>1006</v>
@@ -39358,13 +39472,13 @@
         <v>0</v>
       </c>
       <c r="F1398" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G1398">
         <v>6</v>
       </c>
       <c r="H1398" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1398">
         <v>1006</v>
@@ -39387,13 +39501,13 @@
         <v>0</v>
       </c>
       <c r="F1399" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G1399">
         <v>6</v>
       </c>
-      <c r="H1399" s="2">
-        <v>41334</v>
+      <c r="H1399" t="s">
+        <v>33</v>
       </c>
       <c r="J1399">
         <v>1006</v>
@@ -39419,13 +39533,13 @@
         <v>2</v>
       </c>
       <c r="F1400" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G1400">
         <v>6</v>
       </c>
       <c r="H1400" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J1400">
         <v>1006</v>
@@ -39451,13 +39565,13 @@
         <v>2</v>
       </c>
       <c r="F1401" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1401">
         <v>8</v>
       </c>
-      <c r="H1401" s="2">
-        <v>41519</v>
+      <c r="H1401" t="s">
+        <v>36</v>
       </c>
       <c r="J1401">
         <v>1005</v>
@@ -39512,13 +39626,13 @@
         <v>2</v>
       </c>
       <c r="F1403" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1403">
         <v>8</v>
       </c>
-      <c r="H1403" s="2">
-        <v>41520</v>
+      <c r="H1403" t="s">
+        <v>72</v>
       </c>
       <c r="J1403">
         <v>1005</v>
@@ -39573,7 +39687,7 @@
         <v>4</v>
       </c>
       <c r="F1405" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1405">
         <v>8</v>
@@ -39605,7 +39719,7 @@
         <v>5</v>
       </c>
       <c r="F1406" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1406">
         <v>8</v>
@@ -39640,7 +39754,7 @@
         <v>8</v>
       </c>
       <c r="H1407" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1407">
         <v>1006</v>
@@ -39666,7 +39780,7 @@
         <v>3</v>
       </c>
       <c r="F1408" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="G1408">
         <v>8</v>
@@ -39875,7 +39989,7 @@
         <v>8</v>
       </c>
       <c r="H1415" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1415">
         <v>1005</v>
@@ -40339,7 +40453,7 @@
         <v>6</v>
       </c>
       <c r="H1431" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1431">
         <v>1007</v>
@@ -40388,13 +40502,13 @@
         <v>2</v>
       </c>
       <c r="F1433" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1433">
         <v>6</v>
       </c>
       <c r="H1433" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J1433">
         <v>1007</v>
@@ -40446,7 +40560,7 @@
         <v>6</v>
       </c>
       <c r="H1435" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1435">
         <v>1007</v>
@@ -40541,7 +40655,7 @@
         <v>6</v>
       </c>
       <c r="H1439" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1439">
         <v>1008</v>
